--- a/Pivot_Tables_and_Table/pivot_tables.xlsx
+++ b/Pivot_Tables_and_Table/pivot_tables.xlsx
@@ -235,8 +235,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,13 +539,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -670,43 +694,43 @@
       </c>
       <c r="O2" s="9">
         <f t="array" ref="O2:O109" ca="1">6.17+(11.09-6.17)*RAND()</f>
-        <v>10.007006864038701</v>
+        <v>9.3369573128881704</v>
       </c>
       <c r="P2" s="9">
         <f t="array" ref="P2:P109" ca="1">6.206+(11.136-6.206)*RAND()</f>
-        <v>10.454209951457727</v>
+        <v>6.7197834330563815</v>
       </c>
       <c r="Q2" s="10">
         <v>2.1</v>
       </c>
       <c r="R2" s="9">
         <f t="array" ref="R2:R109" ca="1">0.491+(1.003-0.491)*RAND()</f>
-        <v>0.62961053774265485</v>
+        <v>0.93313378665264302</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="9">
         <f t="array" ref="T2:T109" ca="1">0.02+(0.04-0.02)*RAND()</f>
-        <v>3.0442193790655294E-2</v>
+        <v>2.4536486077577163E-2</v>
       </c>
       <c r="U2" s="9">
         <f t="array" ref="U2:U109" ca="1">0.029+(0.053-0.029)*RAND()</f>
-        <v>4.5740284586445815E-2</v>
+        <v>5.2917662153185163E-2</v>
       </c>
       <c r="V2" s="10">
         <v>0.375</v>
       </c>
       <c r="W2" s="9">
         <f t="array" ref="W2:W109" ca="1">0.01+(0.015-0.01)*RAND()</f>
-        <v>1.0938785595020822E-2</v>
+        <v>1.0115465875511652E-2</v>
       </c>
       <c r="X2" s="10">
         <v>25</v>
       </c>
       <c r="Y2" s="9">
         <f t="array" ref="Y2:Y109" ca="1">6.247+(11.184-6.247)*RAND()</f>
-        <v>10.617101087023935</v>
+        <v>9.0163769535544098</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -754,43 +778,43 @@
       </c>
       <c r="O3" s="9">
         <f ca="1"/>
-        <v>7.9827700681554088</v>
+        <v>9.9437244729714624</v>
       </c>
       <c r="P3" s="9">
         <f ca="1"/>
-        <v>8.675003419801353</v>
+        <v>7.9260602669759592</v>
       </c>
       <c r="Q3" s="10">
         <v>2.1</v>
       </c>
       <c r="R3" s="9">
         <f ca="1"/>
-        <v>0.98942363011590651</v>
+        <v>0.82085209086315913</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="9">
         <f ca="1"/>
-        <v>2.2927780405393137E-2</v>
+        <v>2.9102154686072787E-2</v>
       </c>
       <c r="U3" s="9">
         <f ca="1"/>
-        <v>3.9162713952845485E-2</v>
+        <v>4.5253196359632424E-2</v>
       </c>
       <c r="V3" s="10">
         <v>0.375</v>
       </c>
       <c r="W3" s="9">
         <f ca="1"/>
-        <v>1.4686428152846296E-2</v>
+        <v>1.0415709507595161E-2</v>
       </c>
       <c r="X3" s="10">
         <v>25</v>
       </c>
       <c r="Y3" s="9">
         <f ca="1"/>
-        <v>9.3598648068528547</v>
+        <v>8.8357869356447996</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -838,43 +862,43 @@
       </c>
       <c r="O4" s="9">
         <f ca="1"/>
-        <v>7.2061707589178017</v>
+        <v>8.8901771537869916</v>
       </c>
       <c r="P4" s="9">
         <f ca="1"/>
-        <v>6.3935605421587232</v>
+        <v>8.7166967979623955</v>
       </c>
       <c r="Q4" s="10">
         <v>2.1</v>
       </c>
       <c r="R4" s="9">
         <f ca="1"/>
-        <v>0.82286987840850845</v>
+        <v>0.64866573829595409</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T4" s="9">
         <f ca="1"/>
-        <v>3.0137617719429886E-2</v>
+        <v>3.5527089476577317E-2</v>
       </c>
       <c r="U4" s="9">
         <f ca="1"/>
-        <v>3.0896816904277823E-2</v>
+        <v>3.107445146063988E-2</v>
       </c>
       <c r="V4" s="10">
         <v>0.375</v>
       </c>
       <c r="W4" s="9">
         <f ca="1"/>
-        <v>1.0170218220769212E-2</v>
+        <v>1.1413179981309132E-2</v>
       </c>
       <c r="X4" s="10">
         <v>25</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1"/>
-        <v>8.7915043453339869</v>
+        <v>6.6926709296723876</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -922,43 +946,43 @@
       </c>
       <c r="O5" s="9">
         <f ca="1"/>
-        <v>9.9558640087904031</v>
+        <v>8.9532267500795051</v>
       </c>
       <c r="P5" s="9">
         <f ca="1"/>
-        <v>8.3295667550053825</v>
+        <v>6.4826557243607814</v>
       </c>
       <c r="Q5" s="10">
         <v>2.1</v>
       </c>
       <c r="R5" s="9">
         <f ca="1"/>
-        <v>0.961553798752116</v>
+        <v>0.54201943693917343</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T5" s="9">
         <f ca="1"/>
-        <v>2.9849704299785788E-2</v>
+        <v>2.0735923103741012E-2</v>
       </c>
       <c r="U5" s="9">
         <f ca="1"/>
-        <v>4.9445081299428394E-2</v>
+        <v>3.3442257926772315E-2</v>
       </c>
       <c r="V5" s="10">
         <v>0.375</v>
       </c>
       <c r="W5" s="9">
         <f ca="1"/>
-        <v>1.339948561944352E-2</v>
+        <v>1.047369851493663E-2</v>
       </c>
       <c r="X5" s="10">
         <v>25</v>
       </c>
       <c r="Y5" s="9">
         <f ca="1"/>
-        <v>9.8742044270354317</v>
+        <v>11.182054373537813</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1006,43 +1030,43 @@
       </c>
       <c r="O6" s="9">
         <f ca="1"/>
-        <v>7.1373039185252134</v>
+        <v>10.835751613867775</v>
       </c>
       <c r="P6" s="9">
         <f ca="1"/>
-        <v>7.2165006985811058</v>
+        <v>9.1288628436766501</v>
       </c>
       <c r="Q6" s="10">
         <v>2.1</v>
       </c>
       <c r="R6" s="9">
         <f ca="1"/>
-        <v>0.80905456516480312</v>
+        <v>0.60560194398932332</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T6" s="9">
         <f ca="1"/>
-        <v>3.6167334494967729E-2</v>
+        <v>3.1755954711748184E-2</v>
       </c>
       <c r="U6" s="9">
         <f ca="1"/>
-        <v>3.2399327529093414E-2</v>
+        <v>4.7034429839375419E-2</v>
       </c>
       <c r="V6" s="10">
         <v>0.375</v>
       </c>
       <c r="W6" s="9">
         <f ca="1"/>
-        <v>1.1276966688585886E-2</v>
+        <v>1.4684550766782274E-2</v>
       </c>
       <c r="X6" s="10">
         <v>25</v>
       </c>
       <c r="Y6" s="9">
         <f ca="1"/>
-        <v>9.8385358672524656</v>
+        <v>9.8139482183671625</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1090,43 +1114,43 @@
       </c>
       <c r="O7" s="9">
         <f ca="1"/>
-        <v>10.771821354581798</v>
+        <v>9.173450869302858</v>
       </c>
       <c r="P7" s="9">
         <f ca="1"/>
-        <v>6.5814063733972592</v>
+        <v>6.3952571777825797</v>
       </c>
       <c r="Q7" s="10">
         <v>2.1</v>
       </c>
       <c r="R7" s="9">
         <f ca="1"/>
-        <v>0.75148747644672209</v>
+        <v>0.74433644605787908</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T7" s="9">
         <f ca="1"/>
-        <v>2.5225356332386685E-2</v>
+        <v>3.3710446540485356E-2</v>
       </c>
       <c r="U7" s="9">
         <f ca="1"/>
-        <v>3.6807368901807191E-2</v>
+        <v>3.1456189032245847E-2</v>
       </c>
       <c r="V7" s="10">
         <v>0.375</v>
       </c>
       <c r="W7" s="9">
         <f ca="1"/>
-        <v>1.3572398432654155E-2</v>
+        <v>1.4608594098704884E-2</v>
       </c>
       <c r="X7" s="10">
         <v>25</v>
       </c>
       <c r="Y7" s="9">
         <f ca="1"/>
-        <v>8.1138108665750988</v>
+        <v>7.2662540879267956</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1174,43 +1198,43 @@
       </c>
       <c r="O8" s="9">
         <f ca="1"/>
-        <v>6.5201276994221482</v>
+        <v>11.021691248552722</v>
       </c>
       <c r="P8" s="9">
         <f ca="1"/>
-        <v>10.045968622016002</v>
+        <v>9.8518110129134335</v>
       </c>
       <c r="Q8" s="10">
         <v>2.1</v>
       </c>
       <c r="R8" s="9">
         <f ca="1"/>
-        <v>0.74112233694370544</v>
+        <v>0.95069312009213625</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="9">
         <f ca="1"/>
-        <v>2.5530365690631916E-2</v>
+        <v>2.3545266850223102E-2</v>
       </c>
       <c r="U8" s="9">
         <f ca="1"/>
-        <v>5.1148288684525769E-2</v>
+        <v>3.4895650789182608E-2</v>
       </c>
       <c r="V8" s="10">
         <v>0.375</v>
       </c>
       <c r="W8" s="9">
         <f ca="1"/>
-        <v>1.2849353499962997E-2</v>
+        <v>1.2152881159921979E-2</v>
       </c>
       <c r="X8" s="10">
         <v>25</v>
       </c>
       <c r="Y8" s="9">
         <f ca="1"/>
-        <v>10.572222394456826</v>
+        <v>7.3181601810921251</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1258,43 +1282,43 @@
       </c>
       <c r="O9" s="9">
         <f ca="1"/>
-        <v>9.9260820294640641</v>
+        <v>6.2117813197353327</v>
       </c>
       <c r="P9" s="9">
         <f ca="1"/>
-        <v>6.5241943372756941</v>
+        <v>10.240711465506962</v>
       </c>
       <c r="Q9" s="10">
         <v>2.1</v>
       </c>
       <c r="R9" s="9">
         <f ca="1"/>
-        <v>0.819501003708488</v>
+        <v>0.55973170520223003</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T9" s="9">
         <f ca="1"/>
-        <v>3.2779044085480193E-2</v>
+        <v>2.3414115303097588E-2</v>
       </c>
       <c r="U9" s="9">
         <f ca="1"/>
-        <v>5.1173816763683162E-2</v>
+        <v>4.0950457725038525E-2</v>
       </c>
       <c r="V9" s="10">
         <v>0.375</v>
       </c>
       <c r="W9" s="9">
         <f ca="1"/>
-        <v>1.2294605674943601E-2</v>
+        <v>1.2673019822871896E-2</v>
       </c>
       <c r="X9" s="10">
         <v>25</v>
       </c>
       <c r="Y9" s="9">
         <f ca="1"/>
-        <v>9.141402911736531</v>
+        <v>7.4239684601311797</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1342,43 +1366,43 @@
       </c>
       <c r="O10" s="9">
         <f ca="1"/>
-        <v>10.666827870504903</v>
+        <v>6.5963995945071412</v>
       </c>
       <c r="P10" s="9">
         <f ca="1"/>
-        <v>9.6339717119412178</v>
+        <v>9.9625262717176781</v>
       </c>
       <c r="Q10" s="10">
         <v>2.1</v>
       </c>
       <c r="R10" s="9">
         <f ca="1"/>
-        <v>0.62015706830736328</v>
+        <v>0.5643693051523192</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="9">
         <f ca="1"/>
-        <v>3.4387038628557839E-2</v>
+        <v>3.7894352085047815E-2</v>
       </c>
       <c r="U10" s="9">
         <f ca="1"/>
-        <v>3.7738257579769278E-2</v>
+        <v>3.7239715698582414E-2</v>
       </c>
       <c r="V10" s="10">
         <v>0.375</v>
       </c>
       <c r="W10" s="9">
         <f ca="1"/>
-        <v>1.1559960542293499E-2</v>
+        <v>1.2631494071919587E-2</v>
       </c>
       <c r="X10" s="10">
         <v>25</v>
       </c>
       <c r="Y10" s="9">
         <f ca="1"/>
-        <v>10.81451699164514</v>
+        <v>7.3385034503208324</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1426,43 +1450,43 @@
       </c>
       <c r="O11" s="9">
         <f ca="1"/>
-        <v>8.5664923289243511</v>
+        <v>7.104047259820236</v>
       </c>
       <c r="P11" s="9">
         <f ca="1"/>
-        <v>9.6810041432307088</v>
+        <v>6.583478531916712</v>
       </c>
       <c r="Q11" s="10">
         <v>2.1</v>
       </c>
       <c r="R11" s="9">
         <f ca="1"/>
-        <v>0.57987777799959339</v>
+        <v>0.52119430568542946</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T11" s="9">
         <f ca="1"/>
-        <v>3.1752812041786649E-2</v>
+        <v>2.0529743832784685E-2</v>
       </c>
       <c r="U11" s="9">
         <f ca="1"/>
-        <v>4.7472424878368898E-2</v>
+        <v>4.2611441176704221E-2</v>
       </c>
       <c r="V11" s="10">
         <v>0.375</v>
       </c>
       <c r="W11" s="9">
         <f ca="1"/>
-        <v>1.3534299931441691E-2</v>
+        <v>1.0044116865710679E-2</v>
       </c>
       <c r="X11" s="10">
         <v>25</v>
       </c>
       <c r="Y11" s="9">
         <f ca="1"/>
-        <v>8.6249104109751737</v>
+        <v>7.0600867425770408</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1510,43 +1534,43 @@
       </c>
       <c r="O12" s="9">
         <f ca="1"/>
-        <v>8.3633643162396432</v>
+        <v>10.772747094182323</v>
       </c>
       <c r="P12" s="9">
         <f ca="1"/>
-        <v>8.1575908642248045</v>
+        <v>10.737664267570594</v>
       </c>
       <c r="Q12" s="10">
         <v>2.1</v>
       </c>
       <c r="R12" s="9">
         <f ca="1"/>
-        <v>0.95262014990786548</v>
+        <v>0.94922440275064912</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T12" s="9">
         <f ca="1"/>
-        <v>3.9942096904749397E-2</v>
+        <v>2.3470712707880276E-2</v>
       </c>
       <c r="U12" s="9">
         <f ca="1"/>
-        <v>3.1776427284691842E-2</v>
+        <v>5.2968752027246706E-2</v>
       </c>
       <c r="V12" s="10">
         <v>0.375</v>
       </c>
       <c r="W12" s="9">
         <f ca="1"/>
-        <v>1.0341544104389349E-2</v>
+        <v>1.1915020971525319E-2</v>
       </c>
       <c r="X12" s="10">
         <v>25</v>
       </c>
       <c r="Y12" s="9">
         <f ca="1"/>
-        <v>6.2839363456023145</v>
+        <v>8.0887290972077039</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1594,43 +1618,43 @@
       </c>
       <c r="O13" s="9">
         <f ca="1"/>
-        <v>10.100008811468841</v>
+        <v>10.343998182051678</v>
       </c>
       <c r="P13" s="9">
         <f ca="1"/>
-        <v>7.5229141465196507</v>
+        <v>8.2462371294702042</v>
       </c>
       <c r="Q13" s="10">
         <v>2.1</v>
       </c>
       <c r="R13" s="9">
         <f ca="1"/>
-        <v>0.52195084722872054</v>
+        <v>0.69775519104306305</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T13" s="9">
         <f ca="1"/>
-        <v>3.4905973076455987E-2</v>
+        <v>3.2567780584790623E-2</v>
       </c>
       <c r="U13" s="9">
         <f ca="1"/>
-        <v>3.9543736505099084E-2</v>
+        <v>3.6344476745022808E-2</v>
       </c>
       <c r="V13" s="10">
         <v>0.375</v>
       </c>
       <c r="W13" s="9">
         <f ca="1"/>
-        <v>1.0200572665119183E-2</v>
+        <v>1.3371211276910199E-2</v>
       </c>
       <c r="X13" s="10">
         <v>25</v>
       </c>
       <c r="Y13" s="9">
         <f ca="1"/>
-        <v>10.606426915170509</v>
+        <v>6.5938408917126177</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1678,43 +1702,43 @@
       </c>
       <c r="O14" s="9">
         <f ca="1"/>
-        <v>7.5289712980618404</v>
+        <v>6.6867301225703111</v>
       </c>
       <c r="P14" s="9">
         <f ca="1"/>
-        <v>7.0796858912146146</v>
+        <v>6.4587996165329464</v>
       </c>
       <c r="Q14" s="10">
         <v>2.1</v>
       </c>
       <c r="R14" s="9">
         <f ca="1"/>
-        <v>0.96069518749257443</v>
+        <v>0.51656892622461215</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T14" s="9">
         <f ca="1"/>
-        <v>3.8992070882755275E-2</v>
+        <v>2.8188867651281917E-2</v>
       </c>
       <c r="U14" s="9">
         <f ca="1"/>
-        <v>3.7704948956955024E-2</v>
+        <v>4.1327278128122327E-2</v>
       </c>
       <c r="V14" s="10">
         <v>0.375</v>
       </c>
       <c r="W14" s="9">
         <f ca="1"/>
-        <v>1.0721455529348741E-2</v>
+        <v>1.0638150220675833E-2</v>
       </c>
       <c r="X14" s="10">
         <v>25</v>
       </c>
       <c r="Y14" s="9">
         <f ca="1"/>
-        <v>9.193851913922817</v>
+        <v>8.7430753274711801</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -1762,43 +1786,43 @@
       </c>
       <c r="O15" s="9">
         <f ca="1"/>
-        <v>10.046098712449636</v>
+        <v>11.060828483232283</v>
       </c>
       <c r="P15" s="9">
         <f ca="1"/>
-        <v>8.3321119771885517</v>
+        <v>9.5418590631719784</v>
       </c>
       <c r="Q15" s="10">
         <v>2.1</v>
       </c>
       <c r="R15" s="9">
         <f ca="1"/>
-        <v>0.76346390180683199</v>
+        <v>0.90637812682264651</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T15" s="9">
         <f ca="1"/>
-        <v>2.4252613332577048E-2</v>
+        <v>3.7048942126733403E-2</v>
       </c>
       <c r="U15" s="9">
         <f ca="1"/>
-        <v>3.8166619297267543E-2</v>
+        <v>4.5204649209757905E-2</v>
       </c>
       <c r="V15" s="10">
         <v>0.375</v>
       </c>
       <c r="W15" s="9">
         <f ca="1"/>
-        <v>1.4090065318241952E-2</v>
+        <v>1.0279968938113776E-2</v>
       </c>
       <c r="X15" s="10">
         <v>25</v>
       </c>
       <c r="Y15" s="9">
         <f ca="1"/>
-        <v>7.7217918983912126</v>
+        <v>9.7783289286149824</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -1846,43 +1870,43 @@
       </c>
       <c r="O16" s="9">
         <f ca="1"/>
-        <v>6.6155219507398693</v>
+        <v>8.0537612682148936</v>
       </c>
       <c r="P16" s="9">
         <f ca="1"/>
-        <v>7.201627666004546</v>
+        <v>6.7379447030817481</v>
       </c>
       <c r="Q16" s="10">
         <v>2.1</v>
       </c>
       <c r="R16" s="9">
         <f ca="1"/>
-        <v>0.88598830225115099</v>
+        <v>0.61595248523294777</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T16" s="9">
         <f ca="1"/>
-        <v>3.704409045934335E-2</v>
+        <v>2.0387503052579942E-2</v>
       </c>
       <c r="U16" s="9">
         <f ca="1"/>
-        <v>5.0725893260097188E-2</v>
+        <v>3.0650892443297509E-2</v>
       </c>
       <c r="V16" s="10">
         <v>0.375</v>
       </c>
       <c r="W16" s="9">
         <f ca="1"/>
-        <v>1.31010250166271E-2</v>
+        <v>1.4609207236390311E-2</v>
       </c>
       <c r="X16" s="10">
         <v>25</v>
       </c>
       <c r="Y16" s="9">
         <f ca="1"/>
-        <v>8.9635314602673564</v>
+        <v>6.4713642234574644</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -1930,43 +1954,43 @@
       </c>
       <c r="O17" s="9">
         <f ca="1"/>
-        <v>7.7835904571278753</v>
+        <v>10.793494643516432</v>
       </c>
       <c r="P17" s="9">
         <f ca="1"/>
-        <v>11.008810569651509</v>
+        <v>6.5197193093021957</v>
       </c>
       <c r="Q17" s="10">
         <v>2.1</v>
       </c>
       <c r="R17" s="9">
         <f ca="1"/>
-        <v>0.49805069541860009</v>
+        <v>0.6627978365324444</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T17" s="9">
         <f ca="1"/>
-        <v>2.0678723349018473E-2</v>
+        <v>2.809599372797196E-2</v>
       </c>
       <c r="U17" s="9">
         <f ca="1"/>
-        <v>3.4492618923396702E-2</v>
+        <v>3.7489128401315165E-2</v>
       </c>
       <c r="V17" s="10">
         <v>0.375</v>
       </c>
       <c r="W17" s="9">
         <f ca="1"/>
-        <v>1.2058238992185192E-2</v>
+        <v>1.2397011426148864E-2</v>
       </c>
       <c r="X17" s="10">
         <v>25</v>
       </c>
       <c r="Y17" s="9">
         <f ca="1"/>
-        <v>10.211735615682041</v>
+        <v>7.0382976215765343</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -2014,43 +2038,43 @@
       </c>
       <c r="O18" s="9">
         <f ca="1"/>
-        <v>9.4719185323064821</v>
+        <v>7.6390789460932265</v>
       </c>
       <c r="P18" s="9">
         <f ca="1"/>
-        <v>6.3027049273970102</v>
+        <v>8.3565999225561871</v>
       </c>
       <c r="Q18" s="10">
         <v>2.1</v>
       </c>
       <c r="R18" s="9">
         <f ca="1"/>
-        <v>0.68685923521746639</v>
+        <v>0.95300411887908743</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T18" s="9">
         <f ca="1"/>
-        <v>2.838092883727255E-2</v>
+        <v>2.2445140971084809E-2</v>
       </c>
       <c r="U18" s="9">
         <f ca="1"/>
-        <v>3.2595353431654893E-2</v>
+        <v>4.5273061014948865E-2</v>
       </c>
       <c r="V18" s="10">
         <v>0.375</v>
       </c>
       <c r="W18" s="9">
         <f ca="1"/>
-        <v>1.3001584618561398E-2</v>
+        <v>1.1339644069574471E-2</v>
       </c>
       <c r="X18" s="10">
         <v>25</v>
       </c>
       <c r="Y18" s="9">
         <f ca="1"/>
-        <v>6.7358467603237049</v>
+        <v>8.5279172331979982</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -2098,43 +2122,43 @@
       </c>
       <c r="O19" s="9">
         <f ca="1"/>
-        <v>6.6237942233001323</v>
+        <v>9.1656932052804123</v>
       </c>
       <c r="P19" s="9">
         <f ca="1"/>
-        <v>7.5527740832512515</v>
+        <v>7.2338649844327456</v>
       </c>
       <c r="Q19" s="10">
         <v>2.1</v>
       </c>
       <c r="R19" s="9">
         <f ca="1"/>
-        <v>0.7611156241316519</v>
+        <v>0.8638414086150199</v>
       </c>
       <c r="S19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="9">
         <f ca="1"/>
-        <v>2.8530752704219883E-2</v>
+        <v>2.9467331218308315E-2</v>
       </c>
       <c r="U19" s="9">
         <f ca="1"/>
-        <v>4.671722907959884E-2</v>
+        <v>4.8073564858652024E-2</v>
       </c>
       <c r="V19" s="10">
         <v>0.375</v>
       </c>
       <c r="W19" s="9">
         <f ca="1"/>
-        <v>1.3116321484323701E-2</v>
+        <v>1.1842814527416888E-2</v>
       </c>
       <c r="X19" s="10">
         <v>25</v>
       </c>
       <c r="Y19" s="9">
         <f ca="1"/>
-        <v>8.7996559288236345</v>
+        <v>7.7266110678687525</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2182,43 +2206,43 @@
       </c>
       <c r="O20" s="9">
         <f ca="1"/>
-        <v>7.4347477094045562</v>
+        <v>7.89187173269878</v>
       </c>
       <c r="P20" s="9">
         <f ca="1"/>
-        <v>7.4016114966669466</v>
+        <v>6.9007658319236738</v>
       </c>
       <c r="Q20" s="10">
         <v>2.1</v>
       </c>
       <c r="R20" s="9">
         <f ca="1"/>
-        <v>0.9578057331703731</v>
+        <v>0.79990294514781735</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T20" s="9">
         <f ca="1"/>
-        <v>2.1137975778771856E-2</v>
+        <v>2.3474550623232782E-2</v>
       </c>
       <c r="U20" s="9">
         <f ca="1"/>
-        <v>3.437915712295779E-2</v>
+        <v>4.4484923190875693E-2</v>
       </c>
       <c r="V20" s="10">
         <v>0.375</v>
       </c>
       <c r="W20" s="9">
         <f ca="1"/>
-        <v>1.1170307809774037E-2</v>
+        <v>1.1316065560818801E-2</v>
       </c>
       <c r="X20" s="10">
         <v>25</v>
       </c>
       <c r="Y20" s="9">
         <f ca="1"/>
-        <v>10.144627764848464</v>
+        <v>9.2436544279602728</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -2266,43 +2290,43 @@
       </c>
       <c r="O21" s="9">
         <f ca="1"/>
-        <v>8.2356160231155577</v>
+        <v>9.6632839121629992</v>
       </c>
       <c r="P21" s="9">
         <f ca="1"/>
-        <v>6.8601922376570021</v>
+        <v>9.9434394205925294</v>
       </c>
       <c r="Q21" s="10">
         <v>2.1</v>
       </c>
       <c r="R21" s="9">
         <f ca="1"/>
-        <v>0.89836508353383215</v>
+        <v>0.7103385048057772</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T21" s="9">
         <f ca="1"/>
-        <v>3.8487859837211383E-2</v>
+        <v>2.908514128346916E-2</v>
       </c>
       <c r="U21" s="9">
         <f ca="1"/>
-        <v>4.9207944572607326E-2</v>
+        <v>3.2698887429588847E-2</v>
       </c>
       <c r="V21" s="10">
         <v>0.375</v>
       </c>
       <c r="W21" s="9">
         <f ca="1"/>
-        <v>1.3186480759324149E-2</v>
+        <v>1.3843745410061526E-2</v>
       </c>
       <c r="X21" s="10">
         <v>25</v>
       </c>
       <c r="Y21" s="9">
         <f ca="1"/>
-        <v>8.6473573702285869</v>
+        <v>10.272496806316511</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -2350,43 +2374,43 @@
       </c>
       <c r="O22" s="9">
         <f ca="1"/>
-        <v>6.2671755635942104</v>
+        <v>7.954834319754859</v>
       </c>
       <c r="P22" s="9">
         <f ca="1"/>
-        <v>7.9670142782528286</v>
+        <v>10.558562776331305</v>
       </c>
       <c r="Q22" s="10">
         <v>2.1</v>
       </c>
       <c r="R22" s="9">
         <f ca="1"/>
-        <v>0.76518099230181691</v>
+        <v>0.64371759486973767</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T22" s="9">
         <f ca="1"/>
-        <v>3.7736989924361253E-2</v>
+        <v>3.8622919663236166E-2</v>
       </c>
       <c r="U22" s="9">
         <f ca="1"/>
-        <v>3.2463941119219387E-2</v>
+        <v>2.9050358697258902E-2</v>
       </c>
       <c r="V22" s="10">
         <v>0.375</v>
       </c>
       <c r="W22" s="9">
         <f ca="1"/>
-        <v>1.2854567035895865E-2</v>
+        <v>1.2963057613643306E-2</v>
       </c>
       <c r="X22" s="10">
         <v>25</v>
       </c>
       <c r="Y22" s="9">
         <f ca="1"/>
-        <v>6.4498937853091434</v>
+        <v>7.5245371151476954</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -2434,43 +2458,43 @@
       </c>
       <c r="O23" s="9">
         <f ca="1"/>
-        <v>6.9456031235407334</v>
+        <v>6.5608710995045421</v>
       </c>
       <c r="P23" s="9">
         <f ca="1"/>
-        <v>8.60459802578821</v>
+        <v>9.5821527578527395</v>
       </c>
       <c r="Q23" s="10">
         <v>2.1</v>
       </c>
       <c r="R23" s="9">
         <f ca="1"/>
-        <v>0.66105236515555466</v>
+        <v>0.79596221555380908</v>
       </c>
       <c r="S23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T23" s="9">
         <f ca="1"/>
-        <v>3.3613429729449466E-2</v>
+        <v>3.028528619046408E-2</v>
       </c>
       <c r="U23" s="9">
         <f ca="1"/>
-        <v>4.7906514743873196E-2</v>
+        <v>4.2765069278601568E-2</v>
       </c>
       <c r="V23" s="10">
         <v>0.375</v>
       </c>
       <c r="W23" s="9">
         <f ca="1"/>
-        <v>1.2102016603445117E-2</v>
+        <v>1.4824304713669575E-2</v>
       </c>
       <c r="X23" s="10">
         <v>25</v>
       </c>
       <c r="Y23" s="9">
         <f ca="1"/>
-        <v>7.0529099007804295</v>
+        <v>7.3337270248548148</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2518,43 +2542,43 @@
       </c>
       <c r="O24" s="9">
         <f ca="1"/>
-        <v>9.2558745930570065</v>
+        <v>9.7269347072259187</v>
       </c>
       <c r="P24" s="9">
         <f ca="1"/>
-        <v>10.663294198805595</v>
+        <v>7.951045693419978</v>
       </c>
       <c r="Q24" s="10">
         <v>2.1</v>
       </c>
       <c r="R24" s="9">
         <f ca="1"/>
-        <v>0.8042827006084492</v>
+        <v>0.55671887762517014</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T24" s="9">
         <f ca="1"/>
-        <v>3.3505994128075672E-2</v>
+        <v>3.9324589724549441E-2</v>
       </c>
       <c r="U24" s="9">
         <f ca="1"/>
-        <v>3.7162507212466965E-2</v>
+        <v>3.7220171205645233E-2</v>
       </c>
       <c r="V24" s="10">
         <v>0.375</v>
       </c>
       <c r="W24" s="9">
         <f ca="1"/>
-        <v>1.047841981887138E-2</v>
+        <v>1.1654745304694845E-2</v>
       </c>
       <c r="X24" s="10">
         <v>25</v>
       </c>
       <c r="Y24" s="9">
         <f ca="1"/>
-        <v>11.140352740615263</v>
+        <v>6.8743149017827516</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -2602,43 +2626,43 @@
       </c>
       <c r="O25" s="9">
         <f ca="1"/>
-        <v>8.3805694019551993</v>
+        <v>9.7002849312378814</v>
       </c>
       <c r="P25" s="9">
         <f ca="1"/>
-        <v>9.5236759372975968</v>
+        <v>11.070021571963121</v>
       </c>
       <c r="Q25" s="10">
         <v>2.1</v>
       </c>
       <c r="R25" s="9">
         <f ca="1"/>
-        <v>0.64147396357768671</v>
+        <v>0.61386623881167579</v>
       </c>
       <c r="S25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T25" s="9">
         <f ca="1"/>
-        <v>3.7586555730817185E-2</v>
+        <v>3.6250030986177129E-2</v>
       </c>
       <c r="U25" s="9">
         <f ca="1"/>
-        <v>5.0746833842388921E-2</v>
+        <v>3.4701321117415626E-2</v>
       </c>
       <c r="V25" s="10">
         <v>0.375</v>
       </c>
       <c r="W25" s="9">
         <f ca="1"/>
-        <v>1.3750355935164263E-2</v>
+        <v>1.10201392397603E-2</v>
       </c>
       <c r="X25" s="10">
         <v>25</v>
       </c>
       <c r="Y25" s="9">
         <f ca="1"/>
-        <v>8.5566017335585514</v>
+        <v>10.393050735948234</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -2686,43 +2710,43 @@
       </c>
       <c r="O26" s="9">
         <f ca="1"/>
-        <v>8.1638576901924385</v>
+        <v>8.8669546044412559</v>
       </c>
       <c r="P26" s="9">
         <f ca="1"/>
-        <v>9.769715110781874</v>
+        <v>7.5179936458112335</v>
       </c>
       <c r="Q26" s="10">
         <v>2.1</v>
       </c>
       <c r="R26" s="9">
         <f ca="1"/>
-        <v>0.92747339731084866</v>
+        <v>0.80362503474676172</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T26" s="9">
         <f ca="1"/>
-        <v>2.6214469582875818E-2</v>
+        <v>3.1473282985343409E-2</v>
       </c>
       <c r="U26" s="9">
         <f ca="1"/>
-        <v>5.2204967411980482E-2</v>
+        <v>5.185659380709734E-2</v>
       </c>
       <c r="V26" s="10">
         <v>0.375</v>
       </c>
       <c r="W26" s="9">
         <f ca="1"/>
-        <v>1.2043897621709872E-2</v>
+        <v>1.2098575580602282E-2</v>
       </c>
       <c r="X26" s="10">
         <v>25</v>
       </c>
       <c r="Y26" s="9">
         <f ca="1"/>
-        <v>10.257769972135193</v>
+        <v>9.3836396435772187</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -2770,43 +2794,43 @@
       </c>
       <c r="O27" s="9">
         <f ca="1"/>
-        <v>10.443994163600291</v>
+        <v>10.085975072621579</v>
       </c>
       <c r="P27" s="9">
         <f ca="1"/>
-        <v>7.1793303199125766</v>
+        <v>7.4769434349578159</v>
       </c>
       <c r="Q27" s="10">
         <v>2.1</v>
       </c>
       <c r="R27" s="9">
         <f ca="1"/>
-        <v>0.87856395783052843</v>
+        <v>0.82089433044714955</v>
       </c>
       <c r="S27" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T27" s="9">
         <f ca="1"/>
-        <v>3.8044182205186794E-2</v>
+        <v>3.2061852410484787E-2</v>
       </c>
       <c r="U27" s="9">
         <f ca="1"/>
-        <v>4.3237452224971933E-2</v>
+        <v>4.3643831865557745E-2</v>
       </c>
       <c r="V27" s="10">
         <v>0.375</v>
       </c>
       <c r="W27" s="9">
         <f ca="1"/>
-        <v>1.4149383670653113E-2</v>
+        <v>1.1427509612835295E-2</v>
       </c>
       <c r="X27" s="10">
         <v>25</v>
       </c>
       <c r="Y27" s="9">
         <f ca="1"/>
-        <v>7.2426009282076027</v>
+        <v>9.5278712126588125</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -2854,43 +2878,43 @@
       </c>
       <c r="O28" s="9">
         <f ca="1"/>
-        <v>9.6499671008786194</v>
+        <v>8.5139930769844252</v>
       </c>
       <c r="P28" s="9">
         <f ca="1"/>
-        <v>8.0724622846386254</v>
+        <v>11.105133282184894</v>
       </c>
       <c r="Q28" s="10">
         <v>2.1</v>
       </c>
       <c r="R28" s="9">
         <f ca="1"/>
-        <v>0.93406691474454528</v>
+        <v>0.67611774378396383</v>
       </c>
       <c r="S28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T28" s="9">
         <f ca="1"/>
-        <v>3.458205414897416E-2</v>
+        <v>2.0332434229031512E-2</v>
       </c>
       <c r="U28" s="9">
         <f ca="1"/>
-        <v>4.0779530402370152E-2</v>
+        <v>3.5407959473043954E-2</v>
       </c>
       <c r="V28" s="10">
         <v>0.375</v>
       </c>
       <c r="W28" s="9">
         <f ca="1"/>
-        <v>1.2165472592597011E-2</v>
+        <v>1.464893103886683E-2</v>
       </c>
       <c r="X28" s="10">
         <v>25</v>
       </c>
       <c r="Y28" s="9">
         <f ca="1"/>
-        <v>8.7649142839358909</v>
+        <v>9.9806777287807478</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -2938,43 +2962,43 @@
       </c>
       <c r="O29" s="9">
         <f ca="1"/>
-        <v>6.7263494939994839</v>
+        <v>7.7685145147945702</v>
       </c>
       <c r="P29" s="9">
         <f ca="1"/>
-        <v>7.9193901667408175</v>
+        <v>7.460668484325665</v>
       </c>
       <c r="Q29" s="10">
         <v>2.1</v>
       </c>
       <c r="R29" s="9">
         <f ca="1"/>
-        <v>0.72741734749761966</v>
+        <v>0.5286404830209056</v>
       </c>
       <c r="S29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T29" s="9">
         <f ca="1"/>
-        <v>2.9137535476126047E-2</v>
+        <v>2.1521096171566678E-2</v>
       </c>
       <c r="U29" s="9">
         <f ca="1"/>
-        <v>4.5703555929825557E-2</v>
+        <v>4.8066568288909733E-2</v>
       </c>
       <c r="V29" s="10">
         <v>0.375</v>
       </c>
       <c r="W29" s="9">
         <f ca="1"/>
-        <v>1.1202974936531539E-2</v>
+        <v>1.3617092992238844E-2</v>
       </c>
       <c r="X29" s="10">
         <v>25</v>
       </c>
       <c r="Y29" s="9">
         <f ca="1"/>
-        <v>7.25990312730951</v>
+        <v>9.7253339601065463</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -3022,43 +3046,43 @@
       </c>
       <c r="O30" s="9">
         <f ca="1"/>
-        <v>8.5799440116443133</v>
+        <v>7.7970432560701362</v>
       </c>
       <c r="P30" s="9">
         <f ca="1"/>
-        <v>6.5650029876951868</v>
+        <v>9.3340620908600815</v>
       </c>
       <c r="Q30" s="10">
         <v>2.1</v>
       </c>
       <c r="R30" s="9">
         <f ca="1"/>
-        <v>0.73560866532404912</v>
+        <v>0.72388430536270987</v>
       </c>
       <c r="S30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T30" s="9">
         <f ca="1"/>
-        <v>3.0889378616157995E-2</v>
+        <v>3.4366175261582553E-2</v>
       </c>
       <c r="U30" s="9">
         <f ca="1"/>
-        <v>5.2548315051161504E-2</v>
+        <v>5.0545573813081675E-2</v>
       </c>
       <c r="V30" s="10">
         <v>0.375</v>
       </c>
       <c r="W30" s="9">
         <f ca="1"/>
-        <v>1.2913534398115982E-2</v>
+        <v>1.0700982993918282E-2</v>
       </c>
       <c r="X30" s="10">
         <v>25</v>
       </c>
       <c r="Y30" s="9">
         <f ca="1"/>
-        <v>10.271803863751392</v>
+        <v>10.538363271505752</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -3106,43 +3130,43 @@
       </c>
       <c r="O31" s="9">
         <f ca="1"/>
-        <v>9.9884601763777923</v>
+        <v>10.28783080145725</v>
       </c>
       <c r="P31" s="9">
         <f ca="1"/>
-        <v>10.547966431870709</v>
+        <v>8.7860516460846867</v>
       </c>
       <c r="Q31" s="10">
         <v>2.1</v>
       </c>
       <c r="R31" s="9">
         <f ca="1"/>
-        <v>0.74975765881745715</v>
+        <v>0.57497670317874505</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T31" s="9">
         <f ca="1"/>
-        <v>3.4108621135604811E-2</v>
+        <v>3.5428668754075396E-2</v>
       </c>
       <c r="U31" s="9">
         <f ca="1"/>
-        <v>5.0051555240485712E-2</v>
+        <v>3.3605727225423578E-2</v>
       </c>
       <c r="V31" s="10">
         <v>0.375</v>
       </c>
       <c r="W31" s="9">
         <f ca="1"/>
-        <v>1.2382070964588659E-2</v>
+        <v>1.011218182328576E-2</v>
       </c>
       <c r="X31" s="10">
         <v>25</v>
       </c>
       <c r="Y31" s="9">
         <f ca="1"/>
-        <v>9.9326762833708298</v>
+        <v>8.9502360063486286</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -3190,43 +3214,43 @@
       </c>
       <c r="O32" s="9">
         <f ca="1"/>
-        <v>10.871841110443121</v>
+        <v>7.9395317342520695</v>
       </c>
       <c r="P32" s="9">
         <f ca="1"/>
-        <v>7.8391667515218728</v>
+        <v>10.521469084902201</v>
       </c>
       <c r="Q32" s="10">
         <v>2.1</v>
       </c>
       <c r="R32" s="9">
         <f ca="1"/>
-        <v>0.5200561341919171</v>
+        <v>0.69005477048844366</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T32" s="9">
         <f ca="1"/>
-        <v>3.5982363450449195E-2</v>
+        <v>2.0445893307512369E-2</v>
       </c>
       <c r="U32" s="9">
         <f ca="1"/>
-        <v>4.722475062531821E-2</v>
+        <v>4.3591307301814042E-2</v>
       </c>
       <c r="V32" s="10">
         <v>0.375</v>
       </c>
       <c r="W32" s="9">
         <f ca="1"/>
-        <v>1.3436239437678972E-2</v>
+        <v>1.2651842337958345E-2</v>
       </c>
       <c r="X32" s="10">
         <v>25</v>
       </c>
       <c r="Y32" s="9">
         <f ca="1"/>
-        <v>9.869604016442926</v>
+        <v>9.9002061680588866</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -3274,43 +3298,43 @@
       </c>
       <c r="O33" s="9">
         <f ca="1"/>
-        <v>9.6365479842511057</v>
+        <v>10.032035921987296</v>
       </c>
       <c r="P33" s="9">
         <f ca="1"/>
-        <v>7.4123782323817586</v>
+        <v>7.1961356568286412</v>
       </c>
       <c r="Q33" s="10">
         <v>2.1</v>
       </c>
       <c r="R33" s="9">
         <f ca="1"/>
-        <v>0.86887953121766381</v>
+        <v>0.51373317599932311</v>
       </c>
       <c r="S33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T33" s="9">
         <f ca="1"/>
-        <v>2.3349401487181884E-2</v>
+        <v>3.1794167593500636E-2</v>
       </c>
       <c r="U33" s="9">
         <f ca="1"/>
-        <v>2.9181122088742965E-2</v>
+        <v>5.2897648859015309E-2</v>
       </c>
       <c r="V33" s="10">
         <v>0.375</v>
       </c>
       <c r="W33" s="9">
         <f ca="1"/>
-        <v>1.1781055366745164E-2</v>
+        <v>1.2249160103773239E-2</v>
       </c>
       <c r="X33" s="10">
         <v>25</v>
       </c>
       <c r="Y33" s="9">
         <f ca="1"/>
-        <v>8.8132849139077649</v>
+        <v>7.0206188898407911</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -3358,43 +3382,43 @@
       </c>
       <c r="O34" s="9">
         <f ca="1"/>
-        <v>8.043260673458775</v>
+        <v>7.6570461408421231</v>
       </c>
       <c r="P34" s="9">
         <f ca="1"/>
-        <v>10.366798961606374</v>
+        <v>10.444375505747093</v>
       </c>
       <c r="Q34" s="10">
         <v>2.1</v>
       </c>
       <c r="R34" s="9">
         <f ca="1"/>
-        <v>0.79334952509025058</v>
+        <v>0.51988250551552784</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T34" s="9">
         <f ca="1"/>
-        <v>2.2500992361317293E-2</v>
+        <v>2.3652259608032848E-2</v>
       </c>
       <c r="U34" s="9">
         <f ca="1"/>
-        <v>4.4886584277867243E-2</v>
+        <v>3.7357970414563124E-2</v>
       </c>
       <c r="V34" s="10">
         <v>0.375</v>
       </c>
       <c r="W34" s="9">
         <f ca="1"/>
-        <v>1.1100795204404098E-2</v>
+        <v>1.3523669653849772E-2</v>
       </c>
       <c r="X34" s="10">
         <v>25</v>
       </c>
       <c r="Y34" s="9">
         <f ca="1"/>
-        <v>10.296620417999454</v>
+        <v>7.654172231948702</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -3442,43 +3466,43 @@
       </c>
       <c r="O35" s="9">
         <f ca="1"/>
-        <v>10.61888762169461</v>
+        <v>10.796682130431664</v>
       </c>
       <c r="P35" s="9">
         <f ca="1"/>
-        <v>9.9296502192797274</v>
+        <v>10.414907513341277</v>
       </c>
       <c r="Q35" s="10">
         <v>2.1</v>
       </c>
       <c r="R35" s="9">
         <f ca="1"/>
-        <v>0.92591614523503063</v>
+        <v>0.92530588551027626</v>
       </c>
       <c r="S35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T35" s="9">
         <f ca="1"/>
-        <v>3.2584834622978787E-2</v>
+        <v>3.8594944159075037E-2</v>
       </c>
       <c r="U35" s="9">
         <f ca="1"/>
-        <v>4.7061196854409168E-2</v>
+        <v>5.0727540683609115E-2</v>
       </c>
       <c r="V35" s="10">
         <v>0.375</v>
       </c>
       <c r="W35" s="9">
         <f ca="1"/>
-        <v>1.0677407863827761E-2</v>
+        <v>1.0869499541040125E-2</v>
       </c>
       <c r="X35" s="10">
         <v>25</v>
       </c>
       <c r="Y35" s="9">
         <f ca="1"/>
-        <v>6.2701243997541471</v>
+        <v>8.70446102866849</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -3526,43 +3550,43 @@
       </c>
       <c r="O36" s="9">
         <f ca="1"/>
-        <v>7.1129200355266251</v>
+        <v>9.6230546777138866</v>
       </c>
       <c r="P36" s="9">
         <f ca="1"/>
-        <v>11.121471984006719</v>
+        <v>8.1251067010735376</v>
       </c>
       <c r="Q36" s="10">
         <v>2.1</v>
       </c>
       <c r="R36" s="9">
         <f ca="1"/>
-        <v>0.83530876940569976</v>
+        <v>0.57933419741871661</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T36" s="9">
         <f ca="1"/>
-        <v>3.7572570214969771E-2</v>
+        <v>2.0331521023199479E-2</v>
       </c>
       <c r="U36" s="9">
         <f ca="1"/>
-        <v>4.5737971825449496E-2</v>
+        <v>3.8477134013976344E-2</v>
       </c>
       <c r="V36" s="10">
         <v>0.375</v>
       </c>
       <c r="W36" s="9">
         <f ca="1"/>
-        <v>1.1168069262210657E-2</v>
+        <v>1.2299361561682404E-2</v>
       </c>
       <c r="X36" s="10">
         <v>25</v>
       </c>
       <c r="Y36" s="9">
         <f ca="1"/>
-        <v>6.7611592094798452</v>
+        <v>10.368997157277601</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -3610,43 +3634,43 @@
       </c>
       <c r="O37" s="9">
         <f ca="1"/>
-        <v>9.8470200930013938</v>
+        <v>6.9649775294860561</v>
       </c>
       <c r="P37" s="9">
         <f ca="1"/>
-        <v>9.6260228961374388</v>
+        <v>9.0302519366976988</v>
       </c>
       <c r="Q37" s="10">
         <v>2.1</v>
       </c>
       <c r="R37" s="9">
         <f ca="1"/>
-        <v>0.79179641008632207</v>
+        <v>0.60961730451677942</v>
       </c>
       <c r="S37" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T37" s="9">
         <f ca="1"/>
-        <v>3.5044895642259398E-2</v>
+        <v>3.6140161968126389E-2</v>
       </c>
       <c r="U37" s="9">
         <f ca="1"/>
-        <v>3.0488445446720625E-2</v>
+        <v>3.7747726166146932E-2</v>
       </c>
       <c r="V37" s="10">
         <v>0.375</v>
       </c>
       <c r="W37" s="9">
         <f ca="1"/>
-        <v>1.4038254927261924E-2</v>
+        <v>1.4884634376552051E-2</v>
       </c>
       <c r="X37" s="10">
         <v>25</v>
       </c>
       <c r="Y37" s="9">
         <f ca="1"/>
-        <v>7.0402787338374324</v>
+        <v>7.6938538989252816</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
@@ -3694,43 +3718,43 @@
       </c>
       <c r="O38" s="9">
         <f ca="1"/>
-        <v>10.755679788738981</v>
+        <v>7.2236192520017024</v>
       </c>
       <c r="P38" s="9">
         <f ca="1"/>
-        <v>9.9547082251692096</v>
+        <v>10.621110870773958</v>
       </c>
       <c r="Q38" s="10">
         <v>2.1</v>
       </c>
       <c r="R38" s="9">
         <f ca="1"/>
-        <v>0.60859081764739731</v>
+        <v>0.69536463773271517</v>
       </c>
       <c r="S38" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T38" s="9">
         <f ca="1"/>
-        <v>3.5842612880994544E-2</v>
+        <v>2.1270248483548183E-2</v>
       </c>
       <c r="U38" s="9">
         <f ca="1"/>
-        <v>5.1048220284692053E-2</v>
+        <v>3.5165785899531787E-2</v>
       </c>
       <c r="V38" s="10">
         <v>0.375</v>
       </c>
       <c r="W38" s="9">
         <f ca="1"/>
-        <v>1.1584234349583482E-2</v>
+        <v>1.404824160872965E-2</v>
       </c>
       <c r="X38" s="10">
         <v>25</v>
       </c>
       <c r="Y38" s="9">
         <f ca="1"/>
-        <v>6.9566744309268991</v>
+        <v>6.6484330060647299</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -3778,43 +3802,43 @@
       </c>
       <c r="O39" s="9">
         <f ca="1"/>
-        <v>9.1277060796451259</v>
+        <v>6.6120204394535076</v>
       </c>
       <c r="P39" s="9">
         <f ca="1"/>
-        <v>10.317747228748161</v>
+        <v>6.9266704154091645</v>
       </c>
       <c r="Q39" s="10">
         <v>2.1</v>
       </c>
       <c r="R39" s="9">
         <f ca="1"/>
-        <v>0.65534813356034582</v>
+        <v>0.91605435887965736</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T39" s="9">
         <f ca="1"/>
-        <v>2.2016547906793773E-2</v>
+        <v>2.8432134436086592E-2</v>
       </c>
       <c r="U39" s="9">
         <f ca="1"/>
-        <v>4.8388141364340345E-2</v>
+        <v>3.4220740433460566E-2</v>
       </c>
       <c r="V39" s="10">
         <v>0.375</v>
       </c>
       <c r="W39" s="9">
         <f ca="1"/>
-        <v>1.4707209087608218E-2</v>
+        <v>1.2973364338064201E-2</v>
       </c>
       <c r="X39" s="10">
         <v>25</v>
       </c>
       <c r="Y39" s="9">
         <f ca="1"/>
-        <v>7.8165468643933034</v>
+        <v>8.4620904666712367</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3862,43 +3886,43 @@
       </c>
       <c r="O40" s="9">
         <f ca="1"/>
-        <v>11.082427074843213</v>
+        <v>9.639876975786585</v>
       </c>
       <c r="P40" s="9">
         <f ca="1"/>
-        <v>9.0301232376277039</v>
+        <v>9.379531169630873</v>
       </c>
       <c r="Q40" s="10">
         <v>2.1</v>
       </c>
       <c r="R40" s="9">
         <f ca="1"/>
-        <v>1.0028485122247899</v>
+        <v>0.92462524820304193</v>
       </c>
       <c r="S40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T40" s="9">
         <f ca="1"/>
-        <v>2.6596625060991523E-2</v>
+        <v>2.1604793684322901E-2</v>
       </c>
       <c r="U40" s="9">
         <f ca="1"/>
-        <v>3.7370532062153336E-2</v>
+        <v>3.8279610050039367E-2</v>
       </c>
       <c r="V40" s="10">
         <v>0.375</v>
       </c>
       <c r="W40" s="9">
         <f ca="1"/>
-        <v>1.4984829767985933E-2</v>
+        <v>1.4487830289525543E-2</v>
       </c>
       <c r="X40" s="10">
         <v>25</v>
       </c>
       <c r="Y40" s="9">
         <f ca="1"/>
-        <v>7.1205320158400873</v>
+        <v>6.3941970971061686</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -3946,43 +3970,43 @@
       </c>
       <c r="O41" s="9">
         <f ca="1"/>
-        <v>6.9364509268733308</v>
+        <v>8.2067099883509087</v>
       </c>
       <c r="P41" s="9">
         <f ca="1"/>
-        <v>8.7914794355864387</v>
+        <v>6.3196355983820762</v>
       </c>
       <c r="Q41" s="10">
         <v>2.1</v>
       </c>
       <c r="R41" s="9">
         <f ca="1"/>
-        <v>0.67010095631075017</v>
+        <v>0.54134797259539535</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T41" s="9">
         <f ca="1"/>
-        <v>3.6909788400092458E-2</v>
+        <v>2.7686921311169947E-2</v>
       </c>
       <c r="U41" s="9">
         <f ca="1"/>
-        <v>2.9666621071000116E-2</v>
+        <v>2.9909702182381658E-2</v>
       </c>
       <c r="V41" s="10">
         <v>0.375</v>
       </c>
       <c r="W41" s="9">
         <f ca="1"/>
-        <v>1.4216389274623729E-2</v>
+        <v>1.0980094877077066E-2</v>
       </c>
       <c r="X41" s="10">
         <v>25</v>
       </c>
       <c r="Y41" s="9">
         <f ca="1"/>
-        <v>9.4019622990157732</v>
+        <v>9.4347155196475665</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -4030,43 +4054,43 @@
       </c>
       <c r="O42" s="9">
         <f ca="1"/>
-        <v>6.5236220066275905</v>
+        <v>8.2449015412637792</v>
       </c>
       <c r="P42" s="9">
         <f ca="1"/>
-        <v>7.1468569290642572</v>
+        <v>8.5011196858767484</v>
       </c>
       <c r="Q42" s="10">
         <v>2.1</v>
       </c>
       <c r="R42" s="9">
         <f ca="1"/>
-        <v>0.98111600197587712</v>
+        <v>0.86018993529977461</v>
       </c>
       <c r="S42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T42" s="9">
         <f ca="1"/>
-        <v>3.0808100067369823E-2</v>
+        <v>2.9083905942932094E-2</v>
       </c>
       <c r="U42" s="9">
         <f ca="1"/>
-        <v>3.5179918832620095E-2</v>
+        <v>5.2551050532963287E-2</v>
       </c>
       <c r="V42" s="10">
         <v>0.375</v>
       </c>
       <c r="W42" s="9">
         <f ca="1"/>
-        <v>1.183845491271094E-2</v>
+        <v>1.1697848132551364E-2</v>
       </c>
       <c r="X42" s="10">
         <v>25</v>
       </c>
       <c r="Y42" s="9">
         <f ca="1"/>
-        <v>6.7982697120354576</v>
+        <v>6.9759446267112946</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -4114,43 +4138,43 @@
       </c>
       <c r="O43" s="9">
         <f ca="1"/>
-        <v>8.5617737575576705</v>
+        <v>7.1763965345599141</v>
       </c>
       <c r="P43" s="9">
         <f ca="1"/>
-        <v>8.1777790344903796</v>
+        <v>10.505306468034611</v>
       </c>
       <c r="Q43" s="10">
         <v>2.1</v>
       </c>
       <c r="R43" s="9">
         <f ca="1"/>
-        <v>0.71249469440509317</v>
+        <v>0.63165080001921281</v>
       </c>
       <c r="S43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T43" s="9">
         <f ca="1"/>
-        <v>3.8754312516647349E-2</v>
+        <v>3.66120152959305E-2</v>
       </c>
       <c r="U43" s="9">
         <f ca="1"/>
-        <v>3.2036938076159968E-2</v>
+        <v>4.8524558960786196E-2</v>
       </c>
       <c r="V43" s="10">
         <v>0.375</v>
       </c>
       <c r="W43" s="9">
         <f ca="1"/>
-        <v>1.3988993194794255E-2</v>
+        <v>1.1438869981034942E-2</v>
       </c>
       <c r="X43" s="10">
         <v>25</v>
       </c>
       <c r="Y43" s="9">
         <f ca="1"/>
-        <v>9.1589091199266672</v>
+        <v>7.1185663641949235</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -4198,43 +4222,43 @@
       </c>
       <c r="O44" s="9">
         <f ca="1"/>
-        <v>8.116604370271034</v>
+        <v>8.2141373148891201</v>
       </c>
       <c r="P44" s="9">
         <f ca="1"/>
-        <v>10.026627034855213</v>
+        <v>10.898859851289556</v>
       </c>
       <c r="Q44" s="10">
         <v>2.1</v>
       </c>
       <c r="R44" s="9">
         <f ca="1"/>
-        <v>0.84307078234697164</v>
+        <v>0.62346755094297124</v>
       </c>
       <c r="S44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T44" s="9">
         <f ca="1"/>
-        <v>2.6384619285089464E-2</v>
+        <v>2.2981120016721642E-2</v>
       </c>
       <c r="U44" s="9">
         <f ca="1"/>
-        <v>4.5210914190352648E-2</v>
+        <v>3.6649373791517427E-2</v>
       </c>
       <c r="V44" s="10">
         <v>0.375</v>
       </c>
       <c r="W44" s="9">
         <f ca="1"/>
-        <v>1.4162456333223016E-2</v>
+        <v>1.2400045490114271E-2</v>
       </c>
       <c r="X44" s="10">
         <v>25</v>
       </c>
       <c r="Y44" s="9">
         <f ca="1"/>
-        <v>7.2485777004924206</v>
+        <v>7.5947583301866146</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
@@ -4282,43 +4306,43 @@
       </c>
       <c r="O45" s="9">
         <f ca="1"/>
-        <v>8.4909087794733065</v>
+        <v>7.920335982115013</v>
       </c>
       <c r="P45" s="9">
         <f ca="1"/>
-        <v>8.1102470880848738</v>
+        <v>10.578480404078617</v>
       </c>
       <c r="Q45" s="10">
         <v>2.1</v>
       </c>
       <c r="R45" s="9">
         <f ca="1"/>
-        <v>0.52580914313621108</v>
+        <v>0.8799060580951783</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T45" s="9">
         <f ca="1"/>
-        <v>2.8503783953099104E-2</v>
+        <v>3.1430088046786306E-2</v>
       </c>
       <c r="U45" s="9">
         <f ca="1"/>
-        <v>3.0951004969002747E-2</v>
+        <v>3.7455739624844386E-2</v>
       </c>
       <c r="V45" s="10">
         <v>0.375</v>
       </c>
       <c r="W45" s="9">
         <f ca="1"/>
-        <v>1.2717665604976254E-2</v>
+        <v>1.4490295910058508E-2</v>
       </c>
       <c r="X45" s="10">
         <v>25</v>
       </c>
       <c r="Y45" s="9">
         <f ca="1"/>
-        <v>10.345047958377997</v>
+        <v>8.3361232798835267</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
@@ -4366,43 +4390,43 @@
       </c>
       <c r="O46" s="9">
         <f ca="1"/>
-        <v>9.7539301698391263</v>
+        <v>6.8829041397673372</v>
       </c>
       <c r="P46" s="9">
         <f ca="1"/>
-        <v>8.105423358277525</v>
+        <v>8.1274469004291561</v>
       </c>
       <c r="Q46" s="10">
         <v>2.1</v>
       </c>
       <c r="R46" s="9">
         <f ca="1"/>
-        <v>0.81048862280379907</v>
+        <v>0.51924634108901757</v>
       </c>
       <c r="S46" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T46" s="9">
         <f ca="1"/>
-        <v>2.4363846261317927E-2</v>
+        <v>3.5361865022181381E-2</v>
       </c>
       <c r="U46" s="9">
         <f ca="1"/>
-        <v>4.2908774724159986E-2</v>
+        <v>3.2898658478074723E-2</v>
       </c>
       <c r="V46" s="10">
         <v>0.375</v>
       </c>
       <c r="W46" s="9">
         <f ca="1"/>
-        <v>1.2135937325064692E-2</v>
+        <v>1.4815289765078461E-2</v>
       </c>
       <c r="X46" s="10">
         <v>25</v>
       </c>
       <c r="Y46" s="9">
         <f ca="1"/>
-        <v>8.570196332535188</v>
+        <v>9.8573543463892719</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -4450,43 +4474,43 @@
       </c>
       <c r="O47" s="9">
         <f ca="1"/>
-        <v>8.959374771523521</v>
+        <v>10.181448473815014</v>
       </c>
       <c r="P47" s="9">
         <f ca="1"/>
-        <v>10.428790511405431</v>
+        <v>6.2105883918451754</v>
       </c>
       <c r="Q47" s="10">
         <v>2.1</v>
       </c>
       <c r="R47" s="9">
         <f ca="1"/>
-        <v>0.68238371143514609</v>
+        <v>0.57671556404853641</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T47" s="9">
         <f ca="1"/>
-        <v>3.3446085372736585E-2</v>
+        <v>2.8796760577937553E-2</v>
       </c>
       <c r="U47" s="9">
         <f ca="1"/>
-        <v>3.8758691263795192E-2</v>
+        <v>3.4444572562644854E-2</v>
       </c>
       <c r="V47" s="10">
         <v>0.375</v>
       </c>
       <c r="W47" s="9">
         <f ca="1"/>
-        <v>1.1692428199730001E-2</v>
+        <v>1.3263781781583292E-2</v>
       </c>
       <c r="X47" s="10">
         <v>25</v>
       </c>
       <c r="Y47" s="9">
         <f ca="1"/>
-        <v>11.047763580199796</v>
+        <v>6.7931185784073653</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -4534,43 +4558,43 @@
       </c>
       <c r="O48" s="9">
         <f ca="1"/>
-        <v>9.5435398971796257</v>
+        <v>7.5017118390290101</v>
       </c>
       <c r="P48" s="9">
         <f ca="1"/>
-        <v>7.3594156438607481</v>
+        <v>9.1283176147608618</v>
       </c>
       <c r="Q48" s="10">
         <v>2.1</v>
       </c>
       <c r="R48" s="9">
         <f ca="1"/>
-        <v>0.96929291151237229</v>
+        <v>0.57317442737170887</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T48" s="9">
         <f ca="1"/>
-        <v>2.2091563295566823E-2</v>
+        <v>3.9879741918797798E-2</v>
       </c>
       <c r="U48" s="9">
         <f ca="1"/>
-        <v>3.3797219313874569E-2</v>
+        <v>3.5736441481101153E-2</v>
       </c>
       <c r="V48" s="10">
         <v>0.375</v>
       </c>
       <c r="W48" s="9">
         <f ca="1"/>
-        <v>1.0631716271957118E-2</v>
+        <v>1.1397920416280651E-2</v>
       </c>
       <c r="X48" s="10">
         <v>25</v>
       </c>
       <c r="Y48" s="9">
         <f ca="1"/>
-        <v>8.0880856813022124</v>
+        <v>7.1237682900238335</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -4618,43 +4642,43 @@
       </c>
       <c r="O49" s="9">
         <f ca="1"/>
-        <v>7.9226949636916029</v>
+        <v>10.876693377434748</v>
       </c>
       <c r="P49" s="9">
         <f ca="1"/>
-        <v>8.7982938824456092</v>
+        <v>6.3184205328107197</v>
       </c>
       <c r="Q49" s="10">
         <v>2.1</v>
       </c>
       <c r="R49" s="9">
         <f ca="1"/>
-        <v>0.90721467851448956</v>
+        <v>0.55582948524924325</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T49" s="9">
         <f ca="1"/>
-        <v>2.5700650224678281E-2</v>
+        <v>3.9039851820350732E-2</v>
       </c>
       <c r="U49" s="9">
         <f ca="1"/>
-        <v>4.1394436615561754E-2</v>
+        <v>3.1883959885911334E-2</v>
       </c>
       <c r="V49" s="10">
         <v>0.375</v>
       </c>
       <c r="W49" s="9">
         <f ca="1"/>
-        <v>1.404128730288365E-2</v>
+        <v>1.211950975013879E-2</v>
       </c>
       <c r="X49" s="10">
         <v>25</v>
       </c>
       <c r="Y49" s="9">
         <f ca="1"/>
-        <v>9.2382152662254153</v>
+        <v>10.968561000817886</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -4702,43 +4726,43 @@
       </c>
       <c r="O50" s="9">
         <f ca="1"/>
-        <v>10.838670989912915</v>
+        <v>9.7424192593683188</v>
       </c>
       <c r="P50" s="9">
         <f ca="1"/>
-        <v>9.4099677839895044</v>
+        <v>9.1543977653880582</v>
       </c>
       <c r="Q50" s="10">
         <v>2.1</v>
       </c>
       <c r="R50" s="9">
         <f ca="1"/>
-        <v>0.72618878351222382</v>
+        <v>0.79856282394047107</v>
       </c>
       <c r="S50" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T50" s="9">
         <f ca="1"/>
-        <v>2.6070996551356203E-2</v>
+        <v>2.7980052850915978E-2</v>
       </c>
       <c r="U50" s="9">
         <f ca="1"/>
-        <v>4.8889365090657368E-2</v>
+        <v>3.7184941939547252E-2</v>
       </c>
       <c r="V50" s="10">
         <v>0.375</v>
       </c>
       <c r="W50" s="9">
         <f ca="1"/>
-        <v>1.3778413945791759E-2</v>
+        <v>1.1935514364175096E-2</v>
       </c>
       <c r="X50" s="10">
         <v>25</v>
       </c>
       <c r="Y50" s="9">
         <f ca="1"/>
-        <v>6.7218141471858548</v>
+        <v>8.4135012293306097</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -4786,43 +4810,43 @@
       </c>
       <c r="O51" s="9">
         <f ca="1"/>
-        <v>8.405314503158321</v>
+        <v>6.7777327531345239</v>
       </c>
       <c r="P51" s="9">
         <f ca="1"/>
-        <v>10.265626699348617</v>
+        <v>6.4464602896182841</v>
       </c>
       <c r="Q51" s="10">
         <v>2.1</v>
       </c>
       <c r="R51" s="9">
         <f ca="1"/>
-        <v>0.50109084382848923</v>
+        <v>0.859629787782352</v>
       </c>
       <c r="S51" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T51" s="9">
         <f ca="1"/>
-        <v>2.5284715033021574E-2</v>
+        <v>2.7997334524188615E-2</v>
       </c>
       <c r="U51" s="9">
         <f ca="1"/>
-        <v>4.8829627616643514E-2</v>
+        <v>5.2300695606775971E-2</v>
       </c>
       <c r="V51" s="10">
         <v>0.375</v>
       </c>
       <c r="W51" s="9">
         <f ca="1"/>
-        <v>1.3523961745548417E-2</v>
+        <v>1.341965467129415E-2</v>
       </c>
       <c r="X51" s="10">
         <v>25</v>
       </c>
       <c r="Y51" s="9">
         <f ca="1"/>
-        <v>6.7937495783493835</v>
+        <v>10.496201414201295</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -4870,43 +4894,43 @@
       </c>
       <c r="O52" s="9">
         <f ca="1"/>
-        <v>8.2075171092618859</v>
+        <v>6.5993590313998647</v>
       </c>
       <c r="P52" s="9">
         <f ca="1"/>
-        <v>8.8097644324353137</v>
+        <v>10.908818251725735</v>
       </c>
       <c r="Q52" s="10">
         <v>2.1</v>
       </c>
       <c r="R52" s="9">
         <f ca="1"/>
-        <v>0.7389999620201313</v>
+        <v>0.50697915605920341</v>
       </c>
       <c r="S52" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T52" s="9">
         <f ca="1"/>
-        <v>3.4468437236049081E-2</v>
+        <v>3.1489369999248798E-2</v>
       </c>
       <c r="U52" s="9">
         <f ca="1"/>
-        <v>3.7108450569146509E-2</v>
+        <v>2.9108070141982412E-2</v>
       </c>
       <c r="V52" s="10">
         <v>0.375</v>
       </c>
       <c r="W52" s="9">
         <f ca="1"/>
-        <v>1.354122216163189E-2</v>
+        <v>1.1596751516139226E-2</v>
       </c>
       <c r="X52" s="10">
         <v>25</v>
       </c>
       <c r="Y52" s="9">
         <f ca="1"/>
-        <v>7.1853486536013547</v>
+        <v>9.9956300742884334</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -4954,43 +4978,43 @@
       </c>
       <c r="O53" s="9">
         <f ca="1"/>
-        <v>6.3863927252630237</v>
+        <v>9.5170479906181757</v>
       </c>
       <c r="P53" s="9">
         <f ca="1"/>
-        <v>9.0087791004610747</v>
+        <v>10.02528158491341</v>
       </c>
       <c r="Q53" s="10">
         <v>2.1</v>
       </c>
       <c r="R53" s="9">
         <f ca="1"/>
-        <v>0.79838785023810888</v>
+        <v>0.9990625435021574</v>
       </c>
       <c r="S53" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T53" s="9">
         <f ca="1"/>
-        <v>3.8273785888589366E-2</v>
+        <v>3.5550493843456557E-2</v>
       </c>
       <c r="U53" s="9">
         <f ca="1"/>
-        <v>4.0271459681327504E-2</v>
+        <v>3.5998047680467257E-2</v>
       </c>
       <c r="V53" s="10">
         <v>0.375</v>
       </c>
       <c r="W53" s="9">
         <f ca="1"/>
-        <v>1.2760105797714479E-2</v>
+        <v>1.2299181902242121E-2</v>
       </c>
       <c r="X53" s="10">
         <v>25</v>
       </c>
       <c r="Y53" s="9">
         <f ca="1"/>
-        <v>10.819689503539866</v>
+        <v>9.0964191960492133</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -5038,43 +5062,43 @@
       </c>
       <c r="O54" s="9">
         <f ca="1"/>
-        <v>8.8150944383506946</v>
+        <v>10.10043379665796</v>
       </c>
       <c r="P54" s="9">
         <f ca="1"/>
-        <v>6.5715222427835069</v>
+        <v>7.0603378613064613</v>
       </c>
       <c r="Q54" s="10">
         <v>2.1</v>
       </c>
       <c r="R54" s="9">
         <f ca="1"/>
-        <v>0.9090586889663036</v>
+        <v>0.93824670262567067</v>
       </c>
       <c r="S54" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T54" s="9">
         <f ca="1"/>
-        <v>2.1659661653115569E-2</v>
+        <v>3.0884033760379632E-2</v>
       </c>
       <c r="U54" s="9">
         <f ca="1"/>
-        <v>4.9511085685371346E-2</v>
+        <v>4.9825308497432511E-2</v>
       </c>
       <c r="V54" s="10">
         <v>0.375</v>
       </c>
       <c r="W54" s="9">
         <f ca="1"/>
-        <v>1.4961675616102378E-2</v>
+        <v>1.325018246715531E-2</v>
       </c>
       <c r="X54" s="10">
         <v>25</v>
       </c>
       <c r="Y54" s="9">
         <f ca="1"/>
-        <v>10.460501631608386</v>
+        <v>7.171758888653371</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
@@ -5122,46 +5146,46 @@
       </c>
       <c r="O55" s="9">
         <f ca="1"/>
-        <v>7.089753618041299</v>
+        <v>10.738523476826259</v>
       </c>
       <c r="P55" s="9">
         <f ca="1"/>
-        <v>7.3274997484083375</v>
+        <v>10.897074954791632</v>
       </c>
       <c r="Q55" s="10">
         <v>2.1</v>
       </c>
       <c r="R55" s="9">
         <f ca="1"/>
-        <v>0.78858407571681788</v>
+        <v>0.6601674867060997</v>
       </c>
       <c r="S55" s="8" t="s">
         <v>30</v>
       </c>
       <c r="T55" s="9">
         <f ca="1"/>
-        <v>2.8853001199470624E-2</v>
+        <v>3.880552822934033E-2</v>
       </c>
       <c r="U55" s="9">
         <f ca="1"/>
-        <v>3.1072401239516378E-2</v>
+        <v>4.929538773466971E-2</v>
       </c>
       <c r="V55" s="10">
         <v>0.375</v>
       </c>
       <c r="W55" s="9">
         <f ca="1"/>
-        <v>1.1939900861209085E-2</v>
+        <v>1.3779129269586219E-2</v>
       </c>
       <c r="X55" s="10">
         <v>25</v>
       </c>
       <c r="Y55" s="9">
         <f ca="1"/>
-        <v>6.7432223835398339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.6151004694043625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>3</v>
       </c>
@@ -5206,46 +5230,46 @@
       </c>
       <c r="O56" s="9">
         <f ca="1"/>
-        <v>7.8959215086463193</v>
+        <v>9.3563489344757613</v>
       </c>
       <c r="P56" s="9">
         <f ca="1"/>
-        <v>10.56035616728926</v>
+        <v>8.5060580816128191</v>
       </c>
       <c r="Q56" s="10">
         <v>2.1</v>
       </c>
       <c r="R56" s="9">
         <f ca="1"/>
-        <v>0.92356916928564714</v>
+        <v>0.97710964927963473</v>
       </c>
       <c r="S56" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T56" s="9">
         <f ca="1"/>
-        <v>3.7416013386074115E-2</v>
+        <v>2.3406860033137442E-2</v>
       </c>
       <c r="U56" s="9">
         <f ca="1"/>
-        <v>4.79359828828783E-2</v>
+        <v>4.4881238938690365E-2</v>
       </c>
       <c r="V56" s="10">
         <v>0.375</v>
       </c>
       <c r="W56" s="9">
         <f ca="1"/>
-        <v>1.055915896508419E-2</v>
+        <v>1.3755754094385418E-2</v>
       </c>
       <c r="X56" s="10">
         <v>25</v>
       </c>
       <c r="Y56" s="9">
         <f ca="1"/>
-        <v>6.4905757800018131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>11.011357332078955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>3</v>
       </c>
@@ -5290,46 +5314,46 @@
       </c>
       <c r="O57" s="9">
         <f ca="1"/>
-        <v>9.9415398066152303</v>
+        <v>9.9616367170638256</v>
       </c>
       <c r="P57" s="9">
         <f ca="1"/>
-        <v>10.177408721487371</v>
+        <v>6.7338572905723844</v>
       </c>
       <c r="Q57" s="10">
         <v>2.1</v>
       </c>
       <c r="R57" s="9">
         <f ca="1"/>
-        <v>0.621079032349106</v>
+        <v>0.75247530182084887</v>
       </c>
       <c r="S57" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T57" s="9">
         <f ca="1"/>
-        <v>2.800329630439357E-2</v>
+        <v>3.8403963111669479E-2</v>
       </c>
       <c r="U57" s="9">
         <f ca="1"/>
-        <v>3.1185931728332898E-2</v>
+        <v>3.6051706369207452E-2</v>
       </c>
       <c r="V57" s="10">
         <v>0.375</v>
       </c>
       <c r="W57" s="9">
         <f ca="1"/>
-        <v>1.3800542979453802E-2</v>
+        <v>1.4560478944742604E-2</v>
       </c>
       <c r="X57" s="10">
         <v>25</v>
       </c>
       <c r="Y57" s="9">
         <f ca="1"/>
-        <v>10.309823133682597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.3509807145760364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -5374,46 +5398,46 @@
       </c>
       <c r="O58" s="9">
         <f ca="1"/>
-        <v>8.1030785218169363</v>
+        <v>8.4925877504385419</v>
       </c>
       <c r="P58" s="9">
         <f ca="1"/>
-        <v>6.2281340595286503</v>
+        <v>9.0403726229657444</v>
       </c>
       <c r="Q58" s="10">
         <v>2.1</v>
       </c>
       <c r="R58" s="9">
         <f ca="1"/>
-        <v>0.91239472402819288</v>
+        <v>0.58694950633742615</v>
       </c>
       <c r="S58" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T58" s="9">
         <f ca="1"/>
-        <v>3.9582727987101107E-2</v>
+        <v>3.9452812519857383E-2</v>
       </c>
       <c r="U58" s="9">
         <f ca="1"/>
-        <v>4.1201428402786705E-2</v>
+        <v>3.9956757573590254E-2</v>
       </c>
       <c r="V58" s="10">
         <v>0.375</v>
       </c>
       <c r="W58" s="9">
         <f ca="1"/>
-        <v>1.2963845025347077E-2</v>
+        <v>1.2947192685717469E-2</v>
       </c>
       <c r="X58" s="10">
         <v>25</v>
       </c>
       <c r="Y58" s="9">
         <f ca="1"/>
-        <v>9.4659455816540508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.378726075411231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>3</v>
       </c>
@@ -5458,46 +5482,46 @@
       </c>
       <c r="O59" s="9">
         <f ca="1"/>
-        <v>8.533451774618527</v>
+        <v>8.5987694842588969</v>
       </c>
       <c r="P59" s="9">
         <f ca="1"/>
-        <v>8.1340960663879454</v>
+        <v>8.7353654628882857</v>
       </c>
       <c r="Q59" s="10">
         <v>2.1</v>
       </c>
       <c r="R59" s="9">
         <f ca="1"/>
-        <v>0.78867601901051465</v>
+        <v>0.85227987279792594</v>
       </c>
       <c r="S59" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T59" s="9">
         <f ca="1"/>
-        <v>3.8799503377097005E-2</v>
+        <v>2.0879343697820518E-2</v>
       </c>
       <c r="U59" s="9">
         <f ca="1"/>
-        <v>3.7036526486867359E-2</v>
+        <v>4.3695315098848046E-2</v>
       </c>
       <c r="V59" s="10">
         <v>0.375</v>
       </c>
       <c r="W59" s="9">
         <f ca="1"/>
-        <v>1.3262199135743027E-2</v>
+        <v>1.4533368200068085E-2</v>
       </c>
       <c r="X59" s="10">
         <v>25</v>
       </c>
       <c r="Y59" s="9">
         <f ca="1"/>
-        <v>6.3608242701060878</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.6468990051937062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>3</v>
       </c>
@@ -5542,46 +5566,46 @@
       </c>
       <c r="O60" s="9">
         <f ca="1"/>
-        <v>7.6689098286177799</v>
+        <v>8.9229245766240588</v>
       </c>
       <c r="P60" s="9">
         <f ca="1"/>
-        <v>6.8305388805436635</v>
+        <v>7.9393034812651058</v>
       </c>
       <c r="Q60" s="10">
         <v>2.1</v>
       </c>
       <c r="R60" s="9">
         <f ca="1"/>
-        <v>0.52517974246394061</v>
+        <v>0.86774512755092759</v>
       </c>
       <c r="S60" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T60" s="9">
         <f ca="1"/>
-        <v>2.436605849730342E-2</v>
+        <v>2.8278222489638648E-2</v>
       </c>
       <c r="U60" s="9">
         <f ca="1"/>
-        <v>3.6530781942904766E-2</v>
+        <v>4.2829627417913574E-2</v>
       </c>
       <c r="V60" s="10">
         <v>0.375</v>
       </c>
       <c r="W60" s="9">
         <f ca="1"/>
-        <v>1.1106187203854924E-2</v>
+        <v>1.4745054554275624E-2</v>
       </c>
       <c r="X60" s="10">
         <v>25</v>
       </c>
       <c r="Y60" s="9">
         <f ca="1"/>
-        <v>11.14157294741986</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.2045573866853765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>3</v>
       </c>
@@ -5626,46 +5650,46 @@
       </c>
       <c r="O61" s="9">
         <f ca="1"/>
-        <v>7.8776033448388976</v>
+        <v>8.6908470758470742</v>
       </c>
       <c r="P61" s="9">
         <f ca="1"/>
-        <v>9.8448949580074796</v>
+        <v>9.1880521763951961</v>
       </c>
       <c r="Q61" s="10">
         <v>2.1</v>
       </c>
       <c r="R61" s="9">
         <f ca="1"/>
-        <v>0.72696158947405376</v>
+        <v>0.87223636758510048</v>
       </c>
       <c r="S61" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T61" s="9">
         <f ca="1"/>
-        <v>2.7059735100410907E-2</v>
+        <v>2.5880628011048051E-2</v>
       </c>
       <c r="U61" s="9">
         <f ca="1"/>
-        <v>3.2146466664304978E-2</v>
+        <v>4.1466264406206002E-2</v>
       </c>
       <c r="V61" s="10">
         <v>0.375</v>
       </c>
       <c r="W61" s="9">
         <f ca="1"/>
-        <v>1.0316740906164612E-2</v>
+        <v>1.2910793800849901E-2</v>
       </c>
       <c r="X61" s="10">
         <v>25</v>
       </c>
       <c r="Y61" s="9">
         <f ca="1"/>
-        <v>9.7696037641981768</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.233921127858475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>3</v>
       </c>
@@ -5710,46 +5734,46 @@
       </c>
       <c r="O62" s="9">
         <f ca="1"/>
-        <v>6.9994584362284105</v>
+        <v>9.6406974158046133</v>
       </c>
       <c r="P62" s="9">
         <f ca="1"/>
-        <v>7.8230374384049668</v>
+        <v>8.4785510427910999</v>
       </c>
       <c r="Q62" s="10">
         <v>2.1</v>
       </c>
       <c r="R62" s="9">
         <f ca="1"/>
-        <v>0.79696012960496954</v>
+        <v>1.0027094389555153</v>
       </c>
       <c r="S62" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T62" s="9">
         <f ca="1"/>
-        <v>2.4541785024448325E-2</v>
+        <v>3.3682514889558222E-2</v>
       </c>
       <c r="U62" s="9">
         <f ca="1"/>
-        <v>5.2499315463151855E-2</v>
+        <v>3.2713021631590442E-2</v>
       </c>
       <c r="V62" s="10">
         <v>0.375</v>
       </c>
       <c r="W62" s="9">
         <f ca="1"/>
-        <v>1.125380323094808E-2</v>
+        <v>1.1582475094612226E-2</v>
       </c>
       <c r="X62" s="10">
         <v>25</v>
       </c>
       <c r="Y62" s="9">
         <f ca="1"/>
-        <v>6.3892596988822072</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.88568298543327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>3</v>
       </c>
@@ -5794,46 +5818,46 @@
       </c>
       <c r="O63" s="9">
         <f ca="1"/>
-        <v>6.6689189874509234</v>
+        <v>6.4070782256317695</v>
       </c>
       <c r="P63" s="9">
         <f ca="1"/>
-        <v>7.8244536286051147</v>
+        <v>7.1339015490189466</v>
       </c>
       <c r="Q63" s="10">
         <v>2.1</v>
       </c>
       <c r="R63" s="9">
         <f ca="1"/>
-        <v>0.51016499743745192</v>
+        <v>0.67422421291450685</v>
       </c>
       <c r="S63" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T63" s="9">
         <f ca="1"/>
-        <v>2.2668428056478861E-2</v>
+        <v>3.4709188241077875E-2</v>
       </c>
       <c r="U63" s="9">
         <f ca="1"/>
-        <v>3.3623478377724676E-2</v>
+        <v>4.4424982031137795E-2</v>
       </c>
       <c r="V63" s="10">
         <v>0.375</v>
       </c>
       <c r="W63" s="9">
         <f ca="1"/>
-        <v>1.3332217541518827E-2</v>
+        <v>1.1893344732626231E-2</v>
       </c>
       <c r="X63" s="10">
         <v>25</v>
       </c>
       <c r="Y63" s="9">
         <f ca="1"/>
-        <v>8.6203297344591832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.539629834103446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>3</v>
       </c>
@@ -5878,46 +5902,46 @@
       </c>
       <c r="O64" s="9">
         <f ca="1"/>
-        <v>9.9733957373725382</v>
+        <v>7.9849311983203997</v>
       </c>
       <c r="P64" s="9">
         <f ca="1"/>
-        <v>6.7154787077966835</v>
+        <v>11.127028192758178</v>
       </c>
       <c r="Q64" s="10">
         <v>2.1</v>
       </c>
       <c r="R64" s="9">
         <f ca="1"/>
-        <v>0.70113900337551216</v>
+        <v>0.85884330915561391</v>
       </c>
       <c r="S64" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T64" s="9">
         <f ca="1"/>
-        <v>3.3844324543054562E-2</v>
+        <v>3.7808321605118489E-2</v>
       </c>
       <c r="U64" s="9">
         <f ca="1"/>
-        <v>3.4480732378811808E-2</v>
+        <v>3.4163687182731578E-2</v>
       </c>
       <c r="V64" s="10">
         <v>0.375</v>
       </c>
       <c r="W64" s="9">
         <f ca="1"/>
-        <v>1.2171641665267248E-2</v>
+        <v>1.2417393766006609E-2</v>
       </c>
       <c r="X64" s="10">
         <v>25</v>
       </c>
       <c r="Y64" s="9">
         <f ca="1"/>
-        <v>8.8947370898483911</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.6253524015969329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>3</v>
       </c>
@@ -5962,46 +5986,46 @@
       </c>
       <c r="O65" s="9">
         <f ca="1"/>
-        <v>8.6609515800966346</v>
+        <v>9.7563556042134767</v>
       </c>
       <c r="P65" s="9">
         <f ca="1"/>
-        <v>9.5409579972463394</v>
+        <v>6.9143916914069319</v>
       </c>
       <c r="Q65" s="10">
         <v>2.1</v>
       </c>
       <c r="R65" s="9">
         <f ca="1"/>
-        <v>0.93676216489013031</v>
+        <v>0.8569684917596504</v>
       </c>
       <c r="S65" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T65" s="9">
         <f ca="1"/>
-        <v>2.5028153207537891E-2</v>
+        <v>3.0837464794637833E-2</v>
       </c>
       <c r="U65" s="9">
         <f ca="1"/>
-        <v>4.1712770303425621E-2</v>
+        <v>3.4671753511921762E-2</v>
       </c>
       <c r="V65" s="10">
         <v>0.375</v>
       </c>
       <c r="W65" s="9">
         <f ca="1"/>
-        <v>1.4914922809064143E-2</v>
+        <v>1.0842465172116506E-2</v>
       </c>
       <c r="X65" s="10">
         <v>25</v>
       </c>
       <c r="Y65" s="9">
         <f ca="1"/>
-        <v>8.8555874017076395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.6337932444292846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>3</v>
       </c>
@@ -6046,46 +6070,46 @@
       </c>
       <c r="O66" s="9">
         <f ca="1"/>
-        <v>7.0938660300726077</v>
+        <v>10.565196526945147</v>
       </c>
       <c r="P66" s="9">
         <f ca="1"/>
-        <v>7.4716585548417314</v>
+        <v>6.5417702284274712</v>
       </c>
       <c r="Q66" s="10">
         <v>2.1</v>
       </c>
       <c r="R66" s="9">
         <f ca="1"/>
-        <v>0.61211861604243101</v>
+        <v>0.70932654792995731</v>
       </c>
       <c r="S66" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T66" s="9">
         <f ca="1"/>
-        <v>3.7297205123618296E-2</v>
+        <v>3.229855971181099E-2</v>
       </c>
       <c r="U66" s="9">
         <f ca="1"/>
-        <v>4.9202237865951209E-2</v>
+        <v>3.9256361856947253E-2</v>
       </c>
       <c r="V66" s="10">
         <v>0.375</v>
       </c>
       <c r="W66" s="9">
         <f ca="1"/>
-        <v>1.3784217438289847E-2</v>
+        <v>1.0447716421334432E-2</v>
       </c>
       <c r="X66" s="10">
         <v>25</v>
       </c>
       <c r="Y66" s="9">
         <f ca="1"/>
-        <v>6.3143683111226121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.1615802625037253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>3</v>
       </c>
@@ -6130,46 +6154,46 @@
       </c>
       <c r="O67" s="9">
         <f ca="1"/>
-        <v>8.3782923932028321</v>
+        <v>6.5774748068505717</v>
       </c>
       <c r="P67" s="9">
         <f ca="1"/>
-        <v>10.909516445978642</v>
+        <v>7.3200885400984532</v>
       </c>
       <c r="Q67" s="10">
         <v>2.1</v>
       </c>
       <c r="R67" s="9">
         <f ca="1"/>
-        <v>0.90152988386675748</v>
+        <v>0.84865670849892549</v>
       </c>
       <c r="S67" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T67" s="9">
         <f ca="1"/>
-        <v>2.9716514269353095E-2</v>
+        <v>2.0415279608673037E-2</v>
       </c>
       <c r="U67" s="9">
         <f ca="1"/>
-        <v>4.0329564981434078E-2</v>
+        <v>2.9165409955156565E-2</v>
       </c>
       <c r="V67" s="10">
         <v>0.375</v>
       </c>
       <c r="W67" s="9">
         <f ca="1"/>
-        <v>1.361277048156528E-2</v>
+        <v>1.2972971789269901E-2</v>
       </c>
       <c r="X67" s="10">
         <v>25</v>
       </c>
       <c r="Y67" s="9">
         <f ca="1"/>
-        <v>10.183994576972129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.488509210527283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>3</v>
       </c>
@@ -6214,46 +6238,46 @@
       </c>
       <c r="O68" s="9">
         <f ca="1"/>
-        <v>8.152904615306845</v>
+        <v>8.1953995659181427</v>
       </c>
       <c r="P68" s="9">
         <f ca="1"/>
-        <v>8.5748682987598848</v>
+        <v>8.0112736383540408</v>
       </c>
       <c r="Q68" s="10">
         <v>2.1</v>
       </c>
       <c r="R68" s="9">
         <f ca="1"/>
-        <v>0.95697374816091907</v>
+        <v>0.52368592516400947</v>
       </c>
       <c r="S68" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T68" s="9">
         <f ca="1"/>
-        <v>3.7095397394878216E-2</v>
+        <v>3.1841776765096953E-2</v>
       </c>
       <c r="U68" s="9">
         <f ca="1"/>
-        <v>4.2955181121931134E-2</v>
+        <v>3.6384280245122143E-2</v>
       </c>
       <c r="V68" s="10">
         <v>0.375</v>
       </c>
       <c r="W68" s="9">
         <f ca="1"/>
-        <v>1.4131565940535346E-2</v>
+        <v>1.4642243905223513E-2</v>
       </c>
       <c r="X68" s="10">
         <v>25</v>
       </c>
       <c r="Y68" s="9">
         <f ca="1"/>
-        <v>6.3815213264419643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.2269071778580303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>3</v>
       </c>
@@ -6298,46 +6322,46 @@
       </c>
       <c r="O69" s="9">
         <f ca="1"/>
-        <v>10.41329967459985</v>
+        <v>8.53464579612581</v>
       </c>
       <c r="P69" s="9">
         <f ca="1"/>
-        <v>8.0677457661189926</v>
+        <v>8.4025099346459307</v>
       </c>
       <c r="Q69" s="10">
         <v>2.1</v>
       </c>
       <c r="R69" s="9">
         <f ca="1"/>
-        <v>0.73327545425189322</v>
+        <v>0.73802488157665758</v>
       </c>
       <c r="S69" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T69" s="9">
         <f ca="1"/>
-        <v>3.1609682269687779E-2</v>
+        <v>3.8266168800871685E-2</v>
       </c>
       <c r="U69" s="9">
         <f ca="1"/>
-        <v>4.906006650685224E-2</v>
+        <v>5.2161184854370643E-2</v>
       </c>
       <c r="V69" s="10">
         <v>0.375</v>
       </c>
       <c r="W69" s="9">
         <f ca="1"/>
-        <v>1.3780596304555314E-2</v>
+        <v>1.3026814365684931E-2</v>
       </c>
       <c r="X69" s="10">
         <v>25</v>
       </c>
       <c r="Y69" s="9">
         <f ca="1"/>
-        <v>11.078829972423431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.725436951312755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>3</v>
       </c>
@@ -6382,46 +6406,46 @@
       </c>
       <c r="O70" s="9">
         <f ca="1"/>
-        <v>7.4381752023622774</v>
+        <v>8.3283480886112358</v>
       </c>
       <c r="P70" s="9">
         <f ca="1"/>
-        <v>7.5540427116677726</v>
+        <v>10.880500364578133</v>
       </c>
       <c r="Q70" s="10">
         <v>2.1</v>
       </c>
       <c r="R70" s="9">
         <f ca="1"/>
-        <v>0.97717124003919476</v>
+        <v>0.61686152324079457</v>
       </c>
       <c r="S70" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T70" s="9">
         <f ca="1"/>
-        <v>2.5130959327771409E-2</v>
+        <v>2.5598186280226486E-2</v>
       </c>
       <c r="U70" s="9">
         <f ca="1"/>
-        <v>3.1163734416815005E-2</v>
+        <v>4.4719037501083081E-2</v>
       </c>
       <c r="V70" s="10">
         <v>0.375</v>
       </c>
       <c r="W70" s="9">
         <f ca="1"/>
-        <v>1.4020664984260363E-2</v>
+        <v>1.2931479551336864E-2</v>
       </c>
       <c r="X70" s="10">
         <v>25</v>
       </c>
       <c r="Y70" s="9">
         <f ca="1"/>
-        <v>9.4416732379053094</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.5339830555128078</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>3</v>
       </c>
@@ -6466,46 +6490,46 @@
       </c>
       <c r="O71" s="9">
         <f ca="1"/>
-        <v>11.030676045172562</v>
+        <v>10.314508072967858</v>
       </c>
       <c r="P71" s="9">
         <f ca="1"/>
-        <v>6.3247405804171466</v>
+        <v>7.3600436068123765</v>
       </c>
       <c r="Q71" s="10">
         <v>2.1</v>
       </c>
       <c r="R71" s="9">
         <f ca="1"/>
-        <v>0.79825171061242628</v>
+        <v>0.50622349953180223</v>
       </c>
       <c r="S71" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T71" s="9">
         <f ca="1"/>
-        <v>2.6203551934449898E-2</v>
+        <v>2.0097524640386229E-2</v>
       </c>
       <c r="U71" s="9">
         <f ca="1"/>
-        <v>4.927099025525182E-2</v>
+        <v>3.402405328311283E-2</v>
       </c>
       <c r="V71" s="10">
         <v>0.375</v>
       </c>
       <c r="W71" s="9">
         <f ca="1"/>
-        <v>1.061758278774101E-2</v>
+        <v>1.4823139835998133E-2</v>
       </c>
       <c r="X71" s="10">
         <v>25</v>
       </c>
       <c r="Y71" s="9">
         <f ca="1"/>
-        <v>7.4648145517386322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.977949789318487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>3</v>
       </c>
@@ -6550,46 +6574,46 @@
       </c>
       <c r="O72" s="9">
         <f ca="1"/>
-        <v>7.4212779892935297</v>
+        <v>7.6647663417305516</v>
       </c>
       <c r="P72" s="9">
         <f ca="1"/>
-        <v>10.505839898423032</v>
+        <v>8.9946603688974776</v>
       </c>
       <c r="Q72" s="10">
         <v>2.1</v>
       </c>
       <c r="R72" s="9">
         <f ca="1"/>
-        <v>0.76187465461935311</v>
+        <v>0.75724323231707991</v>
       </c>
       <c r="S72" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T72" s="9">
         <f ca="1"/>
-        <v>2.5880789118485376E-2</v>
+        <v>3.4640001433217257E-2</v>
       </c>
       <c r="U72" s="9">
         <f ca="1"/>
-        <v>4.6035002616269999E-2</v>
+        <v>3.350639348018223E-2</v>
       </c>
       <c r="V72" s="10">
         <v>0.375</v>
       </c>
       <c r="W72" s="9">
         <f ca="1"/>
-        <v>1.2969001077166715E-2</v>
+        <v>1.1943273928365831E-2</v>
       </c>
       <c r="X72" s="10">
         <v>25</v>
       </c>
       <c r="Y72" s="9">
         <f ca="1"/>
-        <v>6.3106911231279463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.983207380902309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>3</v>
       </c>
@@ -6634,46 +6658,46 @@
       </c>
       <c r="O73" s="9">
         <f ca="1"/>
-        <v>8.4345436231079169</v>
+        <v>10.92172892003703</v>
       </c>
       <c r="P73" s="9">
         <f ca="1"/>
-        <v>7.9024559474852314</v>
+        <v>9.2805312335462329</v>
       </c>
       <c r="Q73" s="10">
         <v>2.1</v>
       </c>
       <c r="R73" s="9">
         <f ca="1"/>
-        <v>0.93244975268965158</v>
+        <v>0.72135826104132061</v>
       </c>
       <c r="S73" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T73" s="9">
         <f ca="1"/>
-        <v>3.4814526362928852E-2</v>
+        <v>2.0492221123503976E-2</v>
       </c>
       <c r="U73" s="9">
         <f ca="1"/>
-        <v>3.7624307664924146E-2</v>
+        <v>4.901717264900772E-2</v>
       </c>
       <c r="V73" s="10">
         <v>0.375</v>
       </c>
       <c r="W73" s="9">
         <f ca="1"/>
-        <v>1.2534884055453551E-2</v>
+        <v>1.0116830078675768E-2</v>
       </c>
       <c r="X73" s="10">
         <v>25</v>
       </c>
       <c r="Y73" s="9">
         <f ca="1"/>
-        <v>7.5328621987588722</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.7391349885064855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>3</v>
       </c>
@@ -6718,46 +6742,46 @@
       </c>
       <c r="O74" s="9">
         <f ca="1"/>
-        <v>8.1031172543453422</v>
+        <v>6.5518949413327796</v>
       </c>
       <c r="P74" s="9">
         <f ca="1"/>
-        <v>7.9871275490773535</v>
+        <v>10.08310478522275</v>
       </c>
       <c r="Q74" s="10">
         <v>2.1</v>
       </c>
       <c r="R74" s="9">
         <f ca="1"/>
-        <v>0.56310306421343215</v>
+        <v>0.80663474853642536</v>
       </c>
       <c r="S74" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T74" s="9">
         <f ca="1"/>
-        <v>3.2511858645931785E-2</v>
+        <v>3.5936526438201041E-2</v>
       </c>
       <c r="U74" s="9">
         <f ca="1"/>
-        <v>5.1255143161673691E-2</v>
+        <v>4.5086276912265147E-2</v>
       </c>
       <c r="V74" s="10">
         <v>0.375</v>
       </c>
       <c r="W74" s="9">
         <f ca="1"/>
-        <v>1.413941125740676E-2</v>
+        <v>1.0859024218039508E-2</v>
       </c>
       <c r="X74" s="10">
         <v>25</v>
       </c>
       <c r="Y74" s="9">
         <f ca="1"/>
-        <v>8.480662527206146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>11.17519717723734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>3</v>
       </c>
@@ -6802,46 +6826,46 @@
       </c>
       <c r="O75" s="9">
         <f ca="1"/>
-        <v>10.034366826876795</v>
+        <v>9.3689870644058857</v>
       </c>
       <c r="P75" s="9">
         <f ca="1"/>
-        <v>8.7464686931951885</v>
+        <v>7.5331734547672733</v>
       </c>
       <c r="Q75" s="10">
         <v>2.1</v>
       </c>
       <c r="R75" s="9">
         <f ca="1"/>
-        <v>0.7029186929442478</v>
+        <v>0.5558995188246304</v>
       </c>
       <c r="S75" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T75" s="9">
         <f ca="1"/>
-        <v>2.1838937923234707E-2</v>
+        <v>3.1055468404963257E-2</v>
       </c>
       <c r="U75" s="9">
         <f ca="1"/>
-        <v>3.6043109441708771E-2</v>
+        <v>3.4231713404783246E-2</v>
       </c>
       <c r="V75" s="10">
         <v>0.375</v>
       </c>
       <c r="W75" s="9">
         <f ca="1"/>
-        <v>1.4224528240225531E-2</v>
+        <v>1.3131048676562045E-2</v>
       </c>
       <c r="X75" s="10">
         <v>25</v>
       </c>
       <c r="Y75" s="9">
         <f ca="1"/>
-        <v>8.2764117551575591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.5330298184279441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>3</v>
       </c>
@@ -6886,46 +6910,46 @@
       </c>
       <c r="O76" s="9">
         <f ca="1"/>
-        <v>7.3481250366309361</v>
+        <v>6.9829784664398407</v>
       </c>
       <c r="P76" s="9">
         <f ca="1"/>
-        <v>6.3579497088068342</v>
+        <v>7.4531290546508702</v>
       </c>
       <c r="Q76" s="10">
         <v>2.1</v>
       </c>
       <c r="R76" s="9">
         <f ca="1"/>
-        <v>0.85619581139534517</v>
+        <v>0.80084424367032436</v>
       </c>
       <c r="S76" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T76" s="9">
         <f ca="1"/>
-        <v>3.127844251117378E-2</v>
+        <v>3.2536475979593867E-2</v>
       </c>
       <c r="U76" s="9">
         <f ca="1"/>
-        <v>4.4160750064570001E-2</v>
+        <v>4.8592019149993941E-2</v>
       </c>
       <c r="V76" s="10">
         <v>0.375</v>
       </c>
       <c r="W76" s="9">
         <f ca="1"/>
-        <v>1.2587123460663699E-2</v>
+        <v>1.1183770474178803E-2</v>
       </c>
       <c r="X76" s="10">
         <v>25</v>
       </c>
       <c r="Y76" s="9">
         <f ca="1"/>
-        <v>7.9914706902874606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.4999550063752629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>3</v>
       </c>
@@ -6970,46 +6994,46 @@
       </c>
       <c r="O77" s="9">
         <f ca="1"/>
-        <v>8.3961450318737434</v>
+        <v>8.9120454749698084</v>
       </c>
       <c r="P77" s="9">
         <f ca="1"/>
-        <v>6.9263234400339897</v>
+        <v>7.1741433048747627</v>
       </c>
       <c r="Q77" s="10">
         <v>2.1</v>
       </c>
       <c r="R77" s="9">
         <f ca="1"/>
-        <v>0.89030332440694981</v>
+        <v>0.68486365138165906</v>
       </c>
       <c r="S77" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T77" s="9">
         <f ca="1"/>
-        <v>3.6470745653713499E-2</v>
+        <v>3.7736423118286379E-2</v>
       </c>
       <c r="U77" s="9">
         <f ca="1"/>
-        <v>5.2604571735432218E-2</v>
+        <v>4.5442425811578681E-2</v>
       </c>
       <c r="V77" s="10">
         <v>0.375</v>
       </c>
       <c r="W77" s="9">
         <f ca="1"/>
-        <v>1.2434839544566426E-2</v>
+        <v>1.2506502525631244E-2</v>
       </c>
       <c r="X77" s="10">
         <v>25</v>
       </c>
       <c r="Y77" s="9">
         <f ca="1"/>
-        <v>10.28916002103778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.5937458075758251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>3</v>
       </c>
@@ -7054,46 +7078,46 @@
       </c>
       <c r="O78" s="9">
         <f ca="1"/>
-        <v>9.7884640146751316</v>
+        <v>6.7436873953453835</v>
       </c>
       <c r="P78" s="9">
         <f ca="1"/>
-        <v>8.7878492919946147</v>
+        <v>10.591885764735546</v>
       </c>
       <c r="Q78" s="10">
         <v>2.1</v>
       </c>
       <c r="R78" s="9">
         <f ca="1"/>
-        <v>0.91999086293221777</v>
+        <v>0.7179146431646829</v>
       </c>
       <c r="S78" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T78" s="9">
         <f ca="1"/>
-        <v>2.2287069587268057E-2</v>
+        <v>3.0047521335081286E-2</v>
       </c>
       <c r="U78" s="9">
         <f ca="1"/>
-        <v>3.4346097168775236E-2</v>
+        <v>4.8190342804110484E-2</v>
       </c>
       <c r="V78" s="10">
         <v>0.375</v>
       </c>
       <c r="W78" s="9">
         <f ca="1"/>
-        <v>1.130434706068879E-2</v>
+        <v>1.4044960665231563E-2</v>
       </c>
       <c r="X78" s="10">
         <v>25</v>
       </c>
       <c r="Y78" s="9">
         <f ca="1"/>
-        <v>10.441057568691505</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.4223796133220707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>3</v>
       </c>
@@ -7138,46 +7162,46 @@
       </c>
       <c r="O79" s="9">
         <f ca="1"/>
-        <v>7.4688528812558381</v>
+        <v>10.524293742244312</v>
       </c>
       <c r="P79" s="9">
         <f ca="1"/>
-        <v>10.96697115991876</v>
+        <v>7.5515510185081123</v>
       </c>
       <c r="Q79" s="10">
         <v>2.1</v>
       </c>
       <c r="R79" s="9">
         <f ca="1"/>
-        <v>0.56585439158370898</v>
+        <v>0.51037997681510716</v>
       </c>
       <c r="S79" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T79" s="9">
         <f ca="1"/>
-        <v>2.6197454149540174E-2</v>
+        <v>2.1800240858773818E-2</v>
       </c>
       <c r="U79" s="9">
         <f ca="1"/>
-        <v>3.2143304555447602E-2</v>
+        <v>4.6989999729843648E-2</v>
       </c>
       <c r="V79" s="10">
         <v>0.375</v>
       </c>
       <c r="W79" s="9">
         <f ca="1"/>
-        <v>1.0088447899300449E-2</v>
+        <v>1.1139315744998688E-2</v>
       </c>
       <c r="X79" s="10">
         <v>25</v>
       </c>
       <c r="Y79" s="9">
         <f ca="1"/>
-        <v>8.9007073598234285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.4219118997535656</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>3</v>
       </c>
@@ -7222,46 +7246,46 @@
       </c>
       <c r="O80" s="9">
         <f ca="1"/>
-        <v>9.6443986607671057</v>
+        <v>9.5620585822828303</v>
       </c>
       <c r="P80" s="9">
         <f ca="1"/>
-        <v>6.5881739110303883</v>
+        <v>11.094610669309034</v>
       </c>
       <c r="Q80" s="10">
         <v>2.1</v>
       </c>
       <c r="R80" s="9">
         <f ca="1"/>
-        <v>0.73300298292723398</v>
+        <v>1.0022119877791871</v>
       </c>
       <c r="S80" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T80" s="9">
         <f ca="1"/>
-        <v>3.1423556128903331E-2</v>
+        <v>2.622272341306545E-2</v>
       </c>
       <c r="U80" s="9">
         <f ca="1"/>
-        <v>3.8754742579864498E-2</v>
+        <v>5.1567202561502642E-2</v>
       </c>
       <c r="V80" s="10">
         <v>0.375</v>
       </c>
       <c r="W80" s="9">
         <f ca="1"/>
-        <v>1.0692996933293989E-2</v>
+        <v>1.3148074420063766E-2</v>
       </c>
       <c r="X80" s="10">
         <v>25</v>
       </c>
       <c r="Y80" s="9">
         <f ca="1"/>
-        <v>6.5760885696549725</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.6862593693161729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>3</v>
       </c>
@@ -7306,46 +7330,46 @@
       </c>
       <c r="O81" s="9">
         <f ca="1"/>
-        <v>8.5456511927949492</v>
+        <v>6.6778490494713232</v>
       </c>
       <c r="P81" s="9">
         <f ca="1"/>
-        <v>10.74143216067958</v>
+        <v>8.4177928892836036</v>
       </c>
       <c r="Q81" s="10">
         <v>2.1</v>
       </c>
       <c r="R81" s="9">
         <f ca="1"/>
-        <v>0.67779260542500708</v>
+        <v>0.74499162315227885</v>
       </c>
       <c r="S81" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T81" s="9">
         <f ca="1"/>
-        <v>3.6341786452300053E-2</v>
+        <v>2.8528834960655416E-2</v>
       </c>
       <c r="U81" s="9">
         <f ca="1"/>
-        <v>3.3850158443956765E-2</v>
+        <v>3.589382404094206E-2</v>
       </c>
       <c r="V81" s="10">
         <v>0.375</v>
       </c>
       <c r="W81" s="9">
         <f ca="1"/>
-        <v>1.3851259437783398E-2</v>
+        <v>1.4195389716259206E-2</v>
       </c>
       <c r="X81" s="10">
         <v>25</v>
       </c>
       <c r="Y81" s="9">
         <f ca="1"/>
-        <v>10.980827314460122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.0303588097338512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>3</v>
       </c>
@@ -7390,46 +7414,46 @@
       </c>
       <c r="O82" s="9">
         <f ca="1"/>
-        <v>10.810807321796251</v>
+        <v>9.5044810860025599</v>
       </c>
       <c r="P82" s="9">
         <f ca="1"/>
-        <v>9.7074426989415166</v>
+        <v>10.432879003474667</v>
       </c>
       <c r="Q82" s="10">
         <v>2.1</v>
       </c>
       <c r="R82" s="9">
         <f ca="1"/>
-        <v>0.58558001678201466</v>
+        <v>0.59536200047253296</v>
       </c>
       <c r="S82" s="8" t="s">
         <v>32</v>
       </c>
       <c r="T82" s="9">
         <f ca="1"/>
-        <v>2.4701152062485639E-2</v>
+        <v>3.7759903467663822E-2</v>
       </c>
       <c r="U82" s="9">
         <f ca="1"/>
-        <v>3.1769974156221674E-2</v>
+        <v>4.3053684072017345E-2</v>
       </c>
       <c r="V82" s="10">
         <v>0.375</v>
       </c>
       <c r="W82" s="9">
         <f ca="1"/>
-        <v>1.3280718931812208E-2</v>
+        <v>1.4365382605663861E-2</v>
       </c>
       <c r="X82" s="10">
         <v>25</v>
       </c>
       <c r="Y82" s="9">
         <f ca="1"/>
-        <v>10.151290453312035</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.4972994180400159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>4</v>
       </c>
@@ -7474,46 +7498,46 @@
       </c>
       <c r="O83" s="9">
         <f ca="1"/>
-        <v>9.2122705652180805</v>
+        <v>9.7784497318981067</v>
       </c>
       <c r="P83" s="9">
         <f ca="1"/>
-        <v>6.9243750430812723</v>
+        <v>8.9287312485357599</v>
       </c>
       <c r="Q83" s="10">
         <v>2.1</v>
       </c>
       <c r="R83" s="9">
         <f ca="1"/>
-        <v>0.7565300839812017</v>
+        <v>0.78137578991834311</v>
       </c>
       <c r="S83" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T83" s="9">
         <f ca="1"/>
-        <v>2.3183725893868121E-2</v>
+        <v>2.5867526939408282E-2</v>
       </c>
       <c r="U83" s="9">
         <f ca="1"/>
-        <v>5.2753866246073942E-2</v>
+        <v>3.1823626866571801E-2</v>
       </c>
       <c r="V83" s="10">
         <v>0.375</v>
       </c>
       <c r="W83" s="9">
         <f ca="1"/>
-        <v>1.4145257581133363E-2</v>
+        <v>1.4234524427977721E-2</v>
       </c>
       <c r="X83" s="10">
         <v>25</v>
       </c>
       <c r="Y83" s="9">
         <f ca="1"/>
-        <v>8.3300570151882898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.1742442517632981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>4</v>
       </c>
@@ -7558,46 +7582,46 @@
       </c>
       <c r="O84" s="9">
         <f ca="1"/>
-        <v>6.3894672272577839</v>
+        <v>6.1989844215697065</v>
       </c>
       <c r="P84" s="9">
         <f ca="1"/>
-        <v>6.3183728909847643</v>
+        <v>7.7485934856725773</v>
       </c>
       <c r="Q84" s="10">
         <v>2.1</v>
       </c>
       <c r="R84" s="9">
         <f ca="1"/>
-        <v>0.58125658133766445</v>
+        <v>0.64421314808754171</v>
       </c>
       <c r="S84" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T84" s="9">
         <f ca="1"/>
-        <v>2.7674491141564211E-2</v>
+        <v>3.9922104830002081E-2</v>
       </c>
       <c r="U84" s="9">
         <f ca="1"/>
-        <v>3.544661162085086E-2</v>
+        <v>4.2864761579304071E-2</v>
       </c>
       <c r="V84" s="10">
         <v>0.375</v>
       </c>
       <c r="W84" s="9">
         <f ca="1"/>
-        <v>1.2328719264302467E-2</v>
+        <v>1.4552854710238219E-2</v>
       </c>
       <c r="X84" s="10">
         <v>25</v>
       </c>
       <c r="Y84" s="9">
         <f ca="1"/>
-        <v>7.083748703855453</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.9451848353145067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>4</v>
       </c>
@@ -7642,46 +7666,46 @@
       </c>
       <c r="O85" s="9">
         <f ca="1"/>
-        <v>9.5805316235487279</v>
+        <v>7.0856087157821603</v>
       </c>
       <c r="P85" s="9">
         <f ca="1"/>
-        <v>7.6634670768790949</v>
+        <v>7.7925489404168706</v>
       </c>
       <c r="Q85" s="10">
         <v>2.1</v>
       </c>
       <c r="R85" s="9">
         <f ca="1"/>
-        <v>0.95630772774745876</v>
+        <v>0.56286025247060811</v>
       </c>
       <c r="S85" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T85" s="9">
         <f ca="1"/>
-        <v>2.0696677309834814E-2</v>
+        <v>3.7789946523040956E-2</v>
       </c>
       <c r="U85" s="9">
         <f ca="1"/>
-        <v>3.386927941001372E-2</v>
+        <v>3.1746318493514371E-2</v>
       </c>
       <c r="V85" s="10">
         <v>0.375</v>
       </c>
       <c r="W85" s="9">
         <f ca="1"/>
-        <v>1.2121390959876056E-2</v>
+        <v>1.421217059213525E-2</v>
       </c>
       <c r="X85" s="10">
         <v>25</v>
       </c>
       <c r="Y85" s="9">
         <f ca="1"/>
-        <v>8.5607655086148462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>11.119487106803341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>4</v>
       </c>
@@ -7726,46 +7750,46 @@
       </c>
       <c r="O86" s="9">
         <f ca="1"/>
-        <v>9.2857924550817277</v>
+        <v>8.0456427214713369</v>
       </c>
       <c r="P86" s="9">
         <f ca="1"/>
-        <v>10.658925916081021</v>
+        <v>7.3140093479885522</v>
       </c>
       <c r="Q86" s="10">
         <v>2.1</v>
       </c>
       <c r="R86" s="9">
         <f ca="1"/>
-        <v>0.98233032737832349</v>
+        <v>0.8192901668303475</v>
       </c>
       <c r="S86" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T86" s="9">
         <f ca="1"/>
-        <v>2.8349872568960079E-2</v>
+        <v>3.7396473440782674E-2</v>
       </c>
       <c r="U86" s="9">
         <f ca="1"/>
-        <v>4.2683644572611479E-2</v>
+        <v>3.9746534565642463E-2</v>
       </c>
       <c r="V86" s="10">
         <v>0.375</v>
       </c>
       <c r="W86" s="9">
         <f ca="1"/>
-        <v>1.3956861682891257E-2</v>
+        <v>1.0917738234245324E-2</v>
       </c>
       <c r="X86" s="10">
         <v>25</v>
       </c>
       <c r="Y86" s="9">
         <f ca="1"/>
-        <v>7.6523233749898152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.1932813401790661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>4</v>
       </c>
@@ -7810,46 +7834,46 @@
       </c>
       <c r="O87" s="9">
         <f ca="1"/>
-        <v>11.066742808680322</v>
+        <v>8.8651629162773169</v>
       </c>
       <c r="P87" s="9">
         <f ca="1"/>
-        <v>10.295276192707805</v>
+        <v>10.540378307561202</v>
       </c>
       <c r="Q87" s="10">
         <v>2.1</v>
       </c>
       <c r="R87" s="9">
         <f ca="1"/>
-        <v>0.58877153063637289</v>
+        <v>0.78164946177658723</v>
       </c>
       <c r="S87" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T87" s="9">
         <f ca="1"/>
-        <v>3.9397033470944684E-2</v>
+        <v>2.8612550837012557E-2</v>
       </c>
       <c r="U87" s="9">
         <f ca="1"/>
-        <v>2.968971644241777E-2</v>
+        <v>3.3566750931005432E-2</v>
       </c>
       <c r="V87" s="10">
         <v>0.375</v>
       </c>
       <c r="W87" s="9">
         <f ca="1"/>
-        <v>1.3293958292076618E-2</v>
+        <v>1.10936174635346E-2</v>
       </c>
       <c r="X87" s="10">
         <v>25</v>
       </c>
       <c r="Y87" s="9">
         <f ca="1"/>
-        <v>7.6544325370902033</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.2390222895052734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>4</v>
       </c>
@@ -7894,46 +7918,46 @@
       </c>
       <c r="O88" s="9">
         <f ca="1"/>
-        <v>8.2006124146713439</v>
+        <v>7.8923629381520639</v>
       </c>
       <c r="P88" s="9">
         <f ca="1"/>
-        <v>7.4085053168780277</v>
+        <v>7.6300999987189781</v>
       </c>
       <c r="Q88" s="10">
         <v>2.1</v>
       </c>
       <c r="R88" s="9">
         <f ca="1"/>
-        <v>0.55352798495669653</v>
+        <v>0.620143126950357</v>
       </c>
       <c r="S88" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T88" s="9">
         <f ca="1"/>
-        <v>3.6252946818740153E-2</v>
+        <v>2.7274882177478321E-2</v>
       </c>
       <c r="U88" s="9">
         <f ca="1"/>
-        <v>4.9105618869593776E-2</v>
+        <v>3.5753604530229875E-2</v>
       </c>
       <c r="V88" s="10">
         <v>0.375</v>
       </c>
       <c r="W88" s="9">
         <f ca="1"/>
-        <v>1.4009109423982327E-2</v>
+        <v>1.0652486902964725E-2</v>
       </c>
       <c r="X88" s="10">
         <v>25</v>
       </c>
       <c r="Y88" s="9">
         <f ca="1"/>
-        <v>7.895912571244506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.6171760746466513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>4</v>
       </c>
@@ -7978,46 +8002,46 @@
       </c>
       <c r="O89" s="9">
         <f ca="1"/>
-        <v>9.5413609991328006</v>
+        <v>6.5864072791862345</v>
       </c>
       <c r="P89" s="9">
         <f ca="1"/>
-        <v>6.9793515528239336</v>
+        <v>6.2649186365520135</v>
       </c>
       <c r="Q89" s="10">
         <v>2.1</v>
       </c>
       <c r="R89" s="9">
         <f ca="1"/>
-        <v>0.5470703081685252</v>
+        <v>0.6253504264230153</v>
       </c>
       <c r="S89" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T89" s="9">
         <f ca="1"/>
-        <v>3.781086831952106E-2</v>
+        <v>3.8035572929965629E-2</v>
       </c>
       <c r="U89" s="9">
         <f ca="1"/>
-        <v>3.9162869795530318E-2</v>
+        <v>3.3919972003612832E-2</v>
       </c>
       <c r="V89" s="10">
         <v>0.375</v>
       </c>
       <c r="W89" s="9">
         <f ca="1"/>
-        <v>1.1593901815821799E-2</v>
+        <v>1.3268710809413446E-2</v>
       </c>
       <c r="X89" s="10">
         <v>25</v>
       </c>
       <c r="Y89" s="9">
         <f ca="1"/>
-        <v>9.8327183711743107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.4398949580387139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>4</v>
       </c>
@@ -8062,46 +8086,46 @@
       </c>
       <c r="O90" s="9">
         <f ca="1"/>
-        <v>9.287240714702282</v>
+        <v>9.2507260227128096</v>
       </c>
       <c r="P90" s="9">
         <f ca="1"/>
-        <v>10.010355944628948</v>
+        <v>8.7542863160037001</v>
       </c>
       <c r="Q90" s="10">
         <v>2.1</v>
       </c>
       <c r="R90" s="9">
         <f ca="1"/>
-        <v>0.90890254032122175</v>
+        <v>0.69908333946834111</v>
       </c>
       <c r="S90" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T90" s="9">
         <f ca="1"/>
-        <v>2.8054982573123076E-2</v>
+        <v>3.9784790198456474E-2</v>
       </c>
       <c r="U90" s="9">
         <f ca="1"/>
-        <v>3.6483640734897141E-2</v>
+        <v>5.1127223897425106E-2</v>
       </c>
       <c r="V90" s="10">
         <v>0.375</v>
       </c>
       <c r="W90" s="9">
         <f ca="1"/>
-        <v>1.0101949540390493E-2</v>
+        <v>1.4340467715309486E-2</v>
       </c>
       <c r="X90" s="10">
         <v>25</v>
       </c>
       <c r="Y90" s="9">
         <f ca="1"/>
-        <v>7.7749189424557885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.209944968109443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>4</v>
       </c>
@@ -8146,46 +8170,46 @@
       </c>
       <c r="O91" s="9">
         <f ca="1"/>
-        <v>8.7839755138769391</v>
+        <v>7.0847063282497063</v>
       </c>
       <c r="P91" s="9">
         <f ca="1"/>
-        <v>9.3681910155792956</v>
+        <v>10.042562522228572</v>
       </c>
       <c r="Q91" s="10">
         <v>2.1</v>
       </c>
       <c r="R91" s="9">
         <f ca="1"/>
-        <v>0.69097488088325465</v>
+        <v>0.79054311701721525</v>
       </c>
       <c r="S91" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T91" s="9">
         <f ca="1"/>
-        <v>2.9718729299160366E-2</v>
+        <v>3.2468583893125021E-2</v>
       </c>
       <c r="U91" s="9">
         <f ca="1"/>
-        <v>3.1589960516044166E-2</v>
+        <v>3.7889018686218967E-2</v>
       </c>
       <c r="V91" s="10">
         <v>0.375</v>
       </c>
       <c r="W91" s="9">
         <f ca="1"/>
-        <v>1.418657335009495E-2</v>
+        <v>1.375393069678902E-2</v>
       </c>
       <c r="X91" s="10">
         <v>25</v>
       </c>
       <c r="Y91" s="9">
         <f ca="1"/>
-        <v>7.5024234001969354</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.8253192226334587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>4</v>
       </c>
@@ -8230,46 +8254,46 @@
       </c>
       <c r="O92" s="9">
         <f ca="1"/>
-        <v>6.9025154935080044</v>
+        <v>9.3198236405332437</v>
       </c>
       <c r="P92" s="9">
         <f ca="1"/>
-        <v>8.8805069958746898</v>
+        <v>7.4668666015190626</v>
       </c>
       <c r="Q92" s="10">
         <v>2.1</v>
       </c>
       <c r="R92" s="9">
         <f ca="1"/>
-        <v>0.70475209718262222</v>
+        <v>0.5647343050683169</v>
       </c>
       <c r="S92" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T92" s="9">
         <f ca="1"/>
-        <v>2.7900992210340536E-2</v>
+        <v>2.3333835459052932E-2</v>
       </c>
       <c r="U92" s="9">
         <f ca="1"/>
-        <v>3.4135578984431605E-2</v>
+        <v>3.2213034099833698E-2</v>
       </c>
       <c r="V92" s="10">
         <v>0.375</v>
       </c>
       <c r="W92" s="9">
         <f ca="1"/>
-        <v>1.0089520356125805E-2</v>
+        <v>1.3685218366462255E-2</v>
       </c>
       <c r="X92" s="10">
         <v>25</v>
       </c>
       <c r="Y92" s="9">
         <f ca="1"/>
-        <v>11.049156960446208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.1243079659063859</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>4</v>
       </c>
@@ -8314,46 +8338,46 @@
       </c>
       <c r="O93" s="9">
         <f ca="1"/>
-        <v>9.8882738530768854</v>
+        <v>6.2762227042019072</v>
       </c>
       <c r="P93" s="9">
         <f ca="1"/>
-        <v>10.94273793814995</v>
+        <v>10.350533076673152</v>
       </c>
       <c r="Q93" s="10">
         <v>2.1</v>
       </c>
       <c r="R93" s="9">
         <f ca="1"/>
-        <v>0.92349239496127389</v>
+        <v>0.89868738321801866</v>
       </c>
       <c r="S93" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T93" s="9">
         <f ca="1"/>
-        <v>3.1040895076681268E-2</v>
+        <v>3.3102274283169676E-2</v>
       </c>
       <c r="U93" s="9">
         <f ca="1"/>
-        <v>3.3559944867830489E-2</v>
+        <v>5.1287024578147877E-2</v>
       </c>
       <c r="V93" s="10">
         <v>0.375</v>
       </c>
       <c r="W93" s="9">
         <f ca="1"/>
-        <v>1.3317882371500717E-2</v>
+        <v>1.4278453441603618E-2</v>
       </c>
       <c r="X93" s="10">
         <v>25</v>
       </c>
       <c r="Y93" s="9">
         <f ca="1"/>
-        <v>8.9650153186844825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.3532871871454164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>4</v>
       </c>
@@ -8398,46 +8422,46 @@
       </c>
       <c r="O94" s="9">
         <f ca="1"/>
-        <v>6.8291326112855586</v>
+        <v>9.5391496580020245</v>
       </c>
       <c r="P94" s="9">
         <f ca="1"/>
-        <v>10.476927430086519</v>
+        <v>7.1159047852004376</v>
       </c>
       <c r="Q94" s="10">
         <v>2.1</v>
       </c>
       <c r="R94" s="9">
         <f ca="1"/>
-        <v>0.78428402807095376</v>
+        <v>0.84244518206155794</v>
       </c>
       <c r="S94" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T94" s="9">
         <f ca="1"/>
-        <v>3.8574833528909599E-2</v>
+        <v>2.2146033555240547E-2</v>
       </c>
       <c r="U94" s="9">
         <f ca="1"/>
-        <v>3.7132866864221868E-2</v>
+        <v>5.2469937677695817E-2</v>
       </c>
       <c r="V94" s="10">
         <v>0.375</v>
       </c>
       <c r="W94" s="9">
         <f ca="1"/>
-        <v>1.3510119266385097E-2</v>
+        <v>1.0542435287705744E-2</v>
       </c>
       <c r="X94" s="10">
         <v>25</v>
       </c>
       <c r="Y94" s="9">
         <f ca="1"/>
-        <v>10.912708453586557</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.7213114593485734</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>4</v>
       </c>
@@ -8482,46 +8506,46 @@
       </c>
       <c r="O95" s="9">
         <f ca="1"/>
-        <v>7.2756998402539175</v>
+        <v>7.3070124520448587</v>
       </c>
       <c r="P95" s="9">
         <f ca="1"/>
-        <v>8.0337355055936488</v>
+        <v>7.4170327701248393</v>
       </c>
       <c r="Q95" s="10">
         <v>2.1</v>
       </c>
       <c r="R95" s="9">
         <f ca="1"/>
-        <v>0.75078354192504948</v>
+        <v>0.59959947383331957</v>
       </c>
       <c r="S95" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T95" s="9">
         <f ca="1"/>
-        <v>2.0932980635382969E-2</v>
+        <v>3.5519254273811571E-2</v>
       </c>
       <c r="U95" s="9">
         <f ca="1"/>
-        <v>3.6958532225350622E-2</v>
+        <v>3.8204659908629868E-2</v>
       </c>
       <c r="V95" s="10">
         <v>0.375</v>
       </c>
       <c r="W95" s="9">
         <f ca="1"/>
-        <v>1.446024230368019E-2</v>
+        <v>1.4649722393471929E-2</v>
       </c>
       <c r="X95" s="10">
         <v>25</v>
       </c>
       <c r="Y95" s="9">
         <f ca="1"/>
-        <v>8.0278430447187237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.955960949296343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>4</v>
       </c>
@@ -8566,46 +8590,46 @@
       </c>
       <c r="O96" s="9">
         <f ca="1"/>
-        <v>8.3794553855709335</v>
+        <v>9.3821998955034349</v>
       </c>
       <c r="P96" s="9">
         <f ca="1"/>
-        <v>8.5029235571003188</v>
+        <v>6.3523791766209152</v>
       </c>
       <c r="Q96" s="10">
         <v>2.1</v>
       </c>
       <c r="R96" s="9">
         <f ca="1"/>
-        <v>0.64551603487142006</v>
+        <v>0.80318236136864063</v>
       </c>
       <c r="S96" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T96" s="9">
         <f ca="1"/>
-        <v>2.3184613738401718E-2</v>
+        <v>2.7260813100491426E-2</v>
       </c>
       <c r="U96" s="9">
         <f ca="1"/>
-        <v>5.1221961058917118E-2</v>
+        <v>3.6675387109862935E-2</v>
       </c>
       <c r="V96" s="10">
         <v>0.375</v>
       </c>
       <c r="W96" s="9">
         <f ca="1"/>
-        <v>1.0044453515088512E-2</v>
+        <v>1.2871979671576403E-2</v>
       </c>
       <c r="X96" s="10">
         <v>25</v>
       </c>
       <c r="Y96" s="9">
         <f ca="1"/>
-        <v>7.718237981572531</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.5586698757874498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>4</v>
       </c>
@@ -8650,46 +8674,46 @@
       </c>
       <c r="O97" s="9">
         <f ca="1"/>
-        <v>9.0150113967969432</v>
+        <v>9.4392038353522327</v>
       </c>
       <c r="P97" s="9">
         <f ca="1"/>
-        <v>7.1005397989226369</v>
+        <v>10.769818452563285</v>
       </c>
       <c r="Q97" s="10">
         <v>2.1</v>
       </c>
       <c r="R97" s="9">
         <f ca="1"/>
-        <v>0.58864034332604365</v>
+        <v>0.60043587423277511</v>
       </c>
       <c r="S97" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T97" s="9">
         <f ca="1"/>
-        <v>3.6956926220000075E-2</v>
+        <v>2.3763092360060467E-2</v>
       </c>
       <c r="U97" s="9">
         <f ca="1"/>
-        <v>4.208835697474262E-2</v>
+        <v>4.3523590865327866E-2</v>
       </c>
       <c r="V97" s="10">
         <v>0.375</v>
       </c>
       <c r="W97" s="9">
         <f ca="1"/>
-        <v>1.4320373953002612E-2</v>
+        <v>1.1200077599322391E-2</v>
       </c>
       <c r="X97" s="10">
         <v>25</v>
       </c>
       <c r="Y97" s="9">
         <f ca="1"/>
-        <v>9.9014295951828259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.2656764029832468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>4</v>
       </c>
@@ -8734,46 +8758,46 @@
       </c>
       <c r="O98" s="9">
         <f ca="1"/>
-        <v>9.2302825034642098</v>
+        <v>9.4828374820434913</v>
       </c>
       <c r="P98" s="9">
         <f ca="1"/>
-        <v>9.9994360311121184</v>
+        <v>7.8087985400849806</v>
       </c>
       <c r="Q98" s="10">
         <v>2.1</v>
       </c>
       <c r="R98" s="9">
         <f ca="1"/>
-        <v>0.60110078515828058</v>
+        <v>0.70447298824756888</v>
       </c>
       <c r="S98" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T98" s="9">
         <f ca="1"/>
-        <v>3.6764646982582777E-2</v>
+        <v>2.609167686619733E-2</v>
       </c>
       <c r="U98" s="9">
         <f ca="1"/>
-        <v>5.0160253582753486E-2</v>
+        <v>3.3873778865707957E-2</v>
       </c>
       <c r="V98" s="10">
         <v>0.375</v>
       </c>
       <c r="W98" s="9">
         <f ca="1"/>
-        <v>1.4707337276493669E-2</v>
+        <v>1.448328357979922E-2</v>
       </c>
       <c r="X98" s="10">
         <v>25</v>
       </c>
       <c r="Y98" s="9">
         <f ca="1"/>
-        <v>8.0971906665104125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.8970147242354241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>4</v>
       </c>
@@ -8818,46 +8842,46 @@
       </c>
       <c r="O99" s="9">
         <f ca="1"/>
-        <v>10.601667343860486</v>
+        <v>10.015615576336073</v>
       </c>
       <c r="P99" s="9">
         <f ca="1"/>
-        <v>10.771075248725349</v>
+        <v>9.2043138418771164</v>
       </c>
       <c r="Q99" s="10">
         <v>2.1</v>
       </c>
       <c r="R99" s="9">
         <f ca="1"/>
-        <v>0.69808189677757038</v>
+        <v>0.92498134946720612</v>
       </c>
       <c r="S99" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T99" s="9">
         <f ca="1"/>
-        <v>3.5401258262135138E-2</v>
+        <v>3.0989649742699091E-2</v>
       </c>
       <c r="U99" s="9">
         <f ca="1"/>
-        <v>4.4280655896796077E-2</v>
+        <v>3.9884528976424291E-2</v>
       </c>
       <c r="V99" s="10">
         <v>0.375</v>
       </c>
       <c r="W99" s="9">
         <f ca="1"/>
-        <v>1.236654457577077E-2</v>
+        <v>1.0260899671652911E-2</v>
       </c>
       <c r="X99" s="10">
         <v>25</v>
       </c>
       <c r="Y99" s="9">
         <f ca="1"/>
-        <v>7.5760054018963308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.509810591401148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>4</v>
       </c>
@@ -8902,46 +8926,46 @@
       </c>
       <c r="O100" s="9">
         <f ca="1"/>
-        <v>7.8322382045127243</v>
+        <v>10.516772631290559</v>
       </c>
       <c r="P100" s="9">
         <f ca="1"/>
-        <v>7.9481261499824392</v>
+        <v>9.6413660087599418</v>
       </c>
       <c r="Q100" s="10">
         <v>2.1</v>
       </c>
       <c r="R100" s="9">
         <f ca="1"/>
-        <v>0.64774929860004493</v>
+        <v>0.74047409438810319</v>
       </c>
       <c r="S100" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T100" s="9">
         <f ca="1"/>
-        <v>2.1908534293124973E-2</v>
+        <v>2.1464917816564892E-2</v>
       </c>
       <c r="U100" s="9">
         <f ca="1"/>
-        <v>4.2164107663064568E-2</v>
+        <v>4.9306820645350434E-2</v>
       </c>
       <c r="V100" s="10">
         <v>0.375</v>
       </c>
       <c r="W100" s="9">
         <f ca="1"/>
-        <v>1.4107725875383649E-2</v>
+        <v>1.054834316591096E-2</v>
       </c>
       <c r="X100" s="10">
         <v>25</v>
       </c>
       <c r="Y100" s="9">
         <f ca="1"/>
-        <v>9.4458688103376893</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.0359906131331096</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>4</v>
       </c>
@@ -8986,46 +9010,46 @@
       </c>
       <c r="O101" s="9">
         <f ca="1"/>
-        <v>6.2676752199229826</v>
+        <v>8.0095863201461661</v>
       </c>
       <c r="P101" s="9">
         <f ca="1"/>
-        <v>10.289195651499195</v>
+        <v>9.9283092944810711</v>
       </c>
       <c r="Q101" s="10">
         <v>2.1</v>
       </c>
       <c r="R101" s="9">
         <f ca="1"/>
-        <v>0.60284923430068704</v>
+        <v>0.64230102351098606</v>
       </c>
       <c r="S101" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T101" s="9">
         <f ca="1"/>
-        <v>3.108315161931733E-2</v>
+        <v>2.7394962830352278E-2</v>
       </c>
       <c r="U101" s="9">
         <f ca="1"/>
-        <v>3.6808395082998949E-2</v>
+        <v>3.4289223586467493E-2</v>
       </c>
       <c r="V101" s="10">
         <v>0.375</v>
       </c>
       <c r="W101" s="9">
         <f ca="1"/>
-        <v>1.32479428635965E-2</v>
+        <v>1.314863837097088E-2</v>
       </c>
       <c r="X101" s="10">
         <v>25</v>
       </c>
       <c r="Y101" s="9">
         <f ca="1"/>
-        <v>9.2765364009871458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.0983889671359748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>4</v>
       </c>
@@ -9070,46 +9094,46 @@
       </c>
       <c r="O102" s="9">
         <f ca="1"/>
-        <v>8.0060881570495841</v>
+        <v>6.592719708278052</v>
       </c>
       <c r="P102" s="9">
         <f ca="1"/>
-        <v>10.774613023535085</v>
+        <v>8.7357458992622856</v>
       </c>
       <c r="Q102" s="10">
         <v>2.1</v>
       </c>
       <c r="R102" s="9">
         <f ca="1"/>
-        <v>0.74711763839355361</v>
+        <v>0.94996368824414223</v>
       </c>
       <c r="S102" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T102" s="9">
         <f ca="1"/>
-        <v>2.2477110129538718E-2</v>
+        <v>3.5019435388540486E-2</v>
       </c>
       <c r="U102" s="9">
         <f ca="1"/>
-        <v>4.9415987491256405E-2</v>
+        <v>4.4099037525519698E-2</v>
       </c>
       <c r="V102" s="10">
         <v>0.375</v>
       </c>
       <c r="W102" s="9">
         <f ca="1"/>
-        <v>1.2233770995940458E-2</v>
+        <v>1.4631289265314049E-2</v>
       </c>
       <c r="X102" s="10">
         <v>25</v>
       </c>
       <c r="Y102" s="9">
         <f ca="1"/>
-        <v>8.9329014933788837</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.285822736116973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>4</v>
       </c>
@@ -9154,46 +9178,46 @@
       </c>
       <c r="O103" s="9">
         <f ca="1"/>
-        <v>8.6939838794922331</v>
+        <v>8.5901246709513703</v>
       </c>
       <c r="P103" s="9">
         <f ca="1"/>
-        <v>6.9730387433784271</v>
+        <v>8.7373339826288046</v>
       </c>
       <c r="Q103" s="10">
         <v>2.1</v>
       </c>
       <c r="R103" s="9">
         <f ca="1"/>
-        <v>0.54782155818275557</v>
+        <v>0.53366611152812071</v>
       </c>
       <c r="S103" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T103" s="9">
         <f ca="1"/>
-        <v>2.7188933788958081E-2</v>
+        <v>2.8755616037887167E-2</v>
       </c>
       <c r="U103" s="9">
         <f ca="1"/>
-        <v>5.1769441503732208E-2</v>
+        <v>4.8376180314445197E-2</v>
       </c>
       <c r="V103" s="10">
         <v>0.375</v>
       </c>
       <c r="W103" s="9">
         <f ca="1"/>
-        <v>1.4834090350242695E-2</v>
+        <v>1.4235174193251108E-2</v>
       </c>
       <c r="X103" s="10">
         <v>25</v>
       </c>
       <c r="Y103" s="9">
         <f ca="1"/>
-        <v>9.8619422889074659</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.4699775273952422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>4</v>
       </c>
@@ -9238,46 +9262,46 @@
       </c>
       <c r="O104" s="9">
         <f ca="1"/>
-        <v>9.4857095444324262</v>
+        <v>7.7480428738081581</v>
       </c>
       <c r="P104" s="9">
         <f ca="1"/>
-        <v>10.935493794746268</v>
+        <v>8.8470551158497113</v>
       </c>
       <c r="Q104" s="10">
         <v>2.1</v>
       </c>
       <c r="R104" s="9">
         <f ca="1"/>
-        <v>0.77214829279653774</v>
+        <v>0.95868396529224875</v>
       </c>
       <c r="S104" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T104" s="9">
         <f ca="1"/>
-        <v>3.5538920014457756E-2</v>
+        <v>3.9542021337656927E-2</v>
       </c>
       <c r="U104" s="9">
         <f ca="1"/>
-        <v>4.6702715846556261E-2</v>
+        <v>3.239049092804791E-2</v>
       </c>
       <c r="V104" s="10">
         <v>0.375</v>
       </c>
       <c r="W104" s="9">
         <f ca="1"/>
-        <v>1.0887389816654665E-2</v>
+        <v>1.2125779350513014E-2</v>
       </c>
       <c r="X104" s="10">
         <v>25</v>
       </c>
       <c r="Y104" s="9">
         <f ca="1"/>
-        <v>10.14942411677618</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.3075916058316661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>4</v>
       </c>
@@ -9322,46 +9346,46 @@
       </c>
       <c r="O105" s="9">
         <f ca="1"/>
-        <v>7.9315398413203528</v>
+        <v>8.2546692587763211</v>
       </c>
       <c r="P105" s="9">
         <f ca="1"/>
-        <v>8.1249255512893281</v>
+        <v>6.820355270089828</v>
       </c>
       <c r="Q105" s="10">
         <v>2.1</v>
       </c>
       <c r="R105" s="9">
         <f ca="1"/>
-        <v>0.57480191225487676</v>
+        <v>0.49324933819042044</v>
       </c>
       <c r="S105" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T105" s="9">
         <f ca="1"/>
-        <v>2.0607641175778544E-2</v>
+        <v>2.8131165276737403E-2</v>
       </c>
       <c r="U105" s="9">
         <f ca="1"/>
-        <v>3.0572060795801971E-2</v>
+        <v>4.3510160676017193E-2</v>
       </c>
       <c r="V105" s="10">
         <v>0.375</v>
       </c>
       <c r="W105" s="9">
         <f ca="1"/>
-        <v>1.1388563948765289E-2</v>
+        <v>1.3331500828214294E-2</v>
       </c>
       <c r="X105" s="10">
         <v>25</v>
       </c>
       <c r="Y105" s="9">
         <f ca="1"/>
-        <v>7.740311169563018</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>10.403398124968881</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>4</v>
       </c>
@@ -9406,46 +9430,46 @@
       </c>
       <c r="O106" s="9">
         <f ca="1"/>
-        <v>8.6543656254382366</v>
+        <v>6.6546009687135825</v>
       </c>
       <c r="P106" s="9">
         <f ca="1"/>
-        <v>6.5041359236311518</v>
+        <v>6.9606489486515173</v>
       </c>
       <c r="Q106" s="10">
         <v>2.1</v>
       </c>
       <c r="R106" s="9">
         <f ca="1"/>
-        <v>0.5270597107792645</v>
+        <v>0.5241345811434478</v>
       </c>
       <c r="S106" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T106" s="9">
         <f ca="1"/>
-        <v>2.0219217447738486E-2</v>
+        <v>3.617254047663887E-2</v>
       </c>
       <c r="U106" s="9">
         <f ca="1"/>
-        <v>3.2468880143216396E-2</v>
+        <v>3.3494705875692428E-2</v>
       </c>
       <c r="V106" s="10">
         <v>0.375</v>
       </c>
       <c r="W106" s="9">
         <f ca="1"/>
-        <v>1.3386718817193707E-2</v>
+        <v>1.473080406185133E-2</v>
       </c>
       <c r="X106" s="10">
         <v>25</v>
       </c>
       <c r="Y106" s="9">
         <f ca="1"/>
-        <v>9.5477965998619023</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.5705345779149766</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>4</v>
       </c>
@@ -9490,46 +9514,46 @@
       </c>
       <c r="O107" s="9">
         <f ca="1"/>
-        <v>9.1812333649068485</v>
+        <v>8.9292221465969739</v>
       </c>
       <c r="P107" s="9">
         <f ca="1"/>
-        <v>9.1217013646220071</v>
+        <v>9.8662449613273928</v>
       </c>
       <c r="Q107" s="10">
         <v>2.1</v>
       </c>
       <c r="R107" s="9">
         <f ca="1"/>
-        <v>0.7915526105086601</v>
+        <v>0.50542957819032119</v>
       </c>
       <c r="S107" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T107" s="9">
         <f ca="1"/>
-        <v>2.0983737923634279E-2</v>
+        <v>2.8639412027998558E-2</v>
       </c>
       <c r="U107" s="9">
         <f ca="1"/>
-        <v>4.0368721092010909E-2</v>
+        <v>4.1683029948229505E-2</v>
       </c>
       <c r="V107" s="10">
         <v>0.375</v>
       </c>
       <c r="W107" s="9">
         <f ca="1"/>
-        <v>1.1298579423524829E-2</v>
+        <v>1.1255389262682037E-2</v>
       </c>
       <c r="X107" s="10">
         <v>25</v>
       </c>
       <c r="Y107" s="9">
         <f ca="1"/>
-        <v>9.471893310567431</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.8763051135268434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>4</v>
       </c>
@@ -9574,46 +9598,46 @@
       </c>
       <c r="O108" s="9">
         <f ca="1"/>
-        <v>6.6959325309406657</v>
+        <v>8.9408812489612135</v>
       </c>
       <c r="P108" s="9">
         <f ca="1"/>
-        <v>7.2498044997883753</v>
+        <v>11.124405718198858</v>
       </c>
       <c r="Q108" s="10">
         <v>2.1</v>
       </c>
       <c r="R108" s="9">
         <f ca="1"/>
-        <v>0.53160131084577245</v>
+        <v>0.86535059378931933</v>
       </c>
       <c r="S108" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T108" s="9">
         <f ca="1"/>
-        <v>3.463060033975271E-2</v>
+        <v>3.9450875298301963E-2</v>
       </c>
       <c r="U108" s="9">
         <f ca="1"/>
-        <v>4.1110877777132335E-2</v>
+        <v>4.0971214221039456E-2</v>
       </c>
       <c r="V108" s="10">
         <v>0.375</v>
       </c>
       <c r="W108" s="9">
         <f ca="1"/>
-        <v>1.3359545668562182E-2</v>
+        <v>1.0282312796272709E-2</v>
       </c>
       <c r="X108" s="10">
         <v>25</v>
       </c>
       <c r="Y108" s="9">
         <f ca="1"/>
-        <v>10.146007560306121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.7131382918770726</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>4</v>
       </c>
@@ -9658,53 +9682,47 @@
       </c>
       <c r="O109" s="9">
         <f ca="1"/>
-        <v>6.7568922960724764</v>
+        <v>10.57420353252542</v>
       </c>
       <c r="P109" s="9">
         <f ca="1"/>
-        <v>9.0691446371484599</v>
+        <v>6.4085276427831595</v>
       </c>
       <c r="Q109" s="10">
         <v>2.1</v>
       </c>
       <c r="R109" s="9">
         <f ca="1"/>
-        <v>0.75678846402967692</v>
+        <v>0.5482295538818206</v>
       </c>
       <c r="S109" s="8" t="s">
         <v>34</v>
       </c>
       <c r="T109" s="9">
         <f ca="1"/>
-        <v>3.4022623488135131E-2</v>
+        <v>2.7362147983530444E-2</v>
       </c>
       <c r="U109" s="9">
         <f ca="1"/>
-        <v>3.2774634444617021E-2</v>
+        <v>5.0772381967448446E-2</v>
       </c>
       <c r="V109" s="10">
         <v>0.375</v>
       </c>
       <c r="W109" s="9">
         <f ca="1"/>
-        <v>1.0907922907200933E-2</v>
+        <v>1.2439719350201932E-2</v>
       </c>
       <c r="X109" s="10">
         <v>25</v>
       </c>
       <c r="Y109" s="9">
         <f ca="1"/>
-        <v>8.5881685988670231</v>
+        <v>6.5460255557023119</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y109">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Auto 25000"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>